--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_11_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_11_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2251967.131898204</v>
+        <v>2251308.985792116</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9999723.314680088</v>
+        <v>9999723.314680081</v>
       </c>
     </row>
     <row r="8">
@@ -664,7 +664,7 @@
         <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="E2" t="n">
         <v>10.19681332827224</v>
@@ -673,13 +673,13 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>16.8201079258493</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.876842403087961</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>4.655131744861891</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -737,67 +737,67 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>16.8201079258493</v>
       </c>
-      <c r="C3" t="n">
+      <c r="I3" t="n">
         <v>16.8201079258493</v>
       </c>
-      <c r="D3" t="n">
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>16.8201079258493</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="V3" t="n">
         <v>14.81515106108805</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -825,67 +825,67 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
         <v>16.8201079258493</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>16.8201079258493</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>16.8201079258493</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>14.81515106108805</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>16.8201079258493</v>
-      </c>
-      <c r="V4" t="n">
-        <v>16.8201079258493</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>10.25918591685441</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>14.85194507313413</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="F5" t="n">
         <v>16.8201079258493</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>14.81515106108805</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
         <v>16.8201079258493</v>
       </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="W6" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.81515106108805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>14.81515106108805</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>16.8201079258493</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>14.81515106108805</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>232.2126890077475</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>38.52745889609612</v>
       </c>
       <c r="D8" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>232.212689007748</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>232.212689007748</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>4.641001266096112</v>
@@ -1186,7 +1186,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>65.63033729764918</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>232.2126890077475</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>232.2126890077475</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>97.1250356104452</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>128.2241358271618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1293,7 +1293,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>58.33422380208631</v>
+        <v>208.294928395422</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>68.14162969636737</v>
+        <v>68.14162969636658</v>
       </c>
       <c r="T11" t="n">
         <v>162.3254641204419</v>
       </c>
       <c r="U11" t="n">
-        <v>198.7281997027609</v>
+        <v>198.7281997027627</v>
       </c>
       <c r="V11" t="n">
         <v>290.6128105393753</v>
@@ -1533,7 +1533,7 @@
         <v>113.6560701363918</v>
       </c>
       <c r="D13" t="n">
-        <v>102.1733296528103</v>
+        <v>102.1733296528102</v>
       </c>
       <c r="E13" t="n">
         <v>103.5753384028549</v>
@@ -1545,10 +1545,10 @@
         <v>109.6534850559212</v>
       </c>
       <c r="H13" t="n">
-        <v>90.62431395040068</v>
+        <v>90.62431395040066</v>
       </c>
       <c r="I13" t="n">
-        <v>53.50080851218453</v>
+        <v>53.50080851218483</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>19.78931492044182</v>
+        <v>19.78931492044181</v>
       </c>
       <c r="S13" t="n">
-        <v>125.3502975200123</v>
+        <v>125.3502975200122</v>
       </c>
       <c r="T13" t="n">
         <v>180.580739789806</v>
@@ -1627,7 +1627,7 @@
         <v>247.5517184884972</v>
       </c>
       <c r="I14" t="n">
-        <v>12.74164995514087</v>
+        <v>12.7416499551409</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>68.1416296963674</v>
+        <v>68.14162969636737</v>
       </c>
       <c r="T14" t="n">
         <v>162.3254641204419</v>
@@ -1770,7 +1770,7 @@
         <v>113.6560701363918</v>
       </c>
       <c r="D16" t="n">
-        <v>102.1733296528103</v>
+        <v>102.1733296528102</v>
       </c>
       <c r="E16" t="n">
         <v>103.5753384028549</v>
@@ -1779,13 +1779,13 @@
         <v>107.2584460530058</v>
       </c>
       <c r="G16" t="n">
-        <v>109.6534850559213</v>
+        <v>109.6534850559212</v>
       </c>
       <c r="H16" t="n">
-        <v>90.62431395040069</v>
+        <v>90.62431395040066</v>
       </c>
       <c r="I16" t="n">
-        <v>53.50080851218453</v>
+        <v>53.50080851218452</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>19.78931492044183</v>
+        <v>19.78931492044181</v>
       </c>
       <c r="S16" t="n">
-        <v>125.3502975200123</v>
+        <v>125.3502975200122</v>
       </c>
       <c r="T16" t="n">
         <v>180.580739789806</v>
@@ -1864,7 +1864,7 @@
         <v>247.5517184884972</v>
       </c>
       <c r="I17" t="n">
-        <v>12.74164995514127</v>
+        <v>12.74164995514125</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.14162969636658</v>
+        <v>68.14162969636737</v>
       </c>
       <c r="T17" t="n">
-        <v>162.3254641204419</v>
+        <v>162.3254641204418</v>
       </c>
       <c r="U17" t="n">
-        <v>198.7281997027618</v>
+        <v>198.7281997027613</v>
       </c>
       <c r="V17" t="n">
         <v>290.6128105393753</v>
@@ -2007,7 +2007,7 @@
         <v>113.6560701363918</v>
       </c>
       <c r="D19" t="n">
-        <v>102.1733296528103</v>
+        <v>102.1733296528105</v>
       </c>
       <c r="E19" t="n">
         <v>103.5753384028549</v>
@@ -2016,13 +2016,13 @@
         <v>107.2584460530058</v>
       </c>
       <c r="G19" t="n">
-        <v>109.6534850559209</v>
+        <v>109.6534850559212</v>
       </c>
       <c r="H19" t="n">
-        <v>90.62431395040069</v>
+        <v>90.62431395040066</v>
       </c>
       <c r="I19" t="n">
-        <v>53.50080851218453</v>
+        <v>53.50080851218452</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>19.78931492044188</v>
+        <v>19.78931492044181</v>
       </c>
       <c r="S19" t="n">
-        <v>125.3502975200123</v>
+        <v>125.3502975200122</v>
       </c>
       <c r="T19" t="n">
         <v>180.580739789806</v>
@@ -2101,7 +2101,7 @@
         <v>247.5517184884972</v>
       </c>
       <c r="I20" t="n">
-        <v>12.74164995514126</v>
+        <v>12.74164995514087</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.14162969636749</v>
+        <v>68.14162969636739</v>
       </c>
       <c r="T20" t="n">
         <v>162.3254641204419</v>
@@ -2180,7 +2180,7 @@
         <v>67.75841494660261</v>
       </c>
       <c r="I21" t="n">
-        <v>12.40831335828638</v>
+        <v>12.40831335828639</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>102.1733296528102</v>
       </c>
       <c r="E22" t="n">
-        <v>103.5753384028549</v>
+        <v>103.575338402855</v>
       </c>
       <c r="F22" t="n">
         <v>107.2584460530058</v>
@@ -2256,7 +2256,7 @@
         <v>109.6534850559212</v>
       </c>
       <c r="H22" t="n">
-        <v>90.62431395040076</v>
+        <v>90.62431395040068</v>
       </c>
       <c r="I22" t="n">
         <v>53.50080851218453</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>19.78931492044182</v>
+        <v>19.78931492044183</v>
       </c>
       <c r="S22" t="n">
         <v>125.3502975200123</v>
@@ -2338,7 +2338,7 @@
         <v>247.5517184884972</v>
       </c>
       <c r="I23" t="n">
-        <v>12.74164995514126</v>
+        <v>12.74164995514087</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.14162969636658</v>
+        <v>68.14162969636739</v>
       </c>
       <c r="T23" t="n">
         <v>162.3254641204419</v>
       </c>
       <c r="U23" t="n">
-        <v>198.7281997027627</v>
+        <v>198.7281997027611</v>
       </c>
       <c r="V23" t="n">
         <v>290.6128105393753</v>
@@ -2417,7 +2417,7 @@
         <v>67.75841494660261</v>
       </c>
       <c r="I24" t="n">
-        <v>12.40831335828638</v>
+        <v>12.40831335828639</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>19.78931492044182</v>
+        <v>19.78931492044143</v>
       </c>
       <c r="S25" t="n">
         <v>125.3502975200123</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>123.8679982738762</v>
+        <v>123.8679982738765</v>
       </c>
       <c r="T26" t="n">
         <v>218.0518326979508</v>
       </c>
       <c r="U26" t="n">
-        <v>254.45456828027</v>
+        <v>254.4545682802712</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>3.552567484246359</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.3798536334301</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>146.3506825279095</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>109.2271770896934</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>75.51568349795065</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0766660975211</v>
@@ -2769,19 +2769,19 @@
         <v>236.3071083673149</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9593641504126</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.87103693063537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2848,7 +2848,7 @@
         <v>218.0518326979508</v>
       </c>
       <c r="U29" t="n">
-        <v>254.45456828027</v>
+        <v>254.4545682802704</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>75.51568349795065</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0766660975211</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>236.3071083673149</v>
@@ -3015,10 +3015,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>163.7482966724758</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>221.0458550440534</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>247.5517184884972</v>
       </c>
       <c r="I32" t="n">
-        <v>12.7416499551413</v>
+        <v>12.74164995514126</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>68.14162969636658</v>
+        <v>68.14162969636737</v>
       </c>
       <c r="T32" t="n">
-        <v>162.325464120442</v>
+        <v>162.3254641204419</v>
       </c>
       <c r="U32" t="n">
-        <v>198.7281997027618</v>
+        <v>198.7281997027627</v>
       </c>
       <c r="V32" t="n">
         <v>290.6128105393753</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>130.0963407525952</v>
+        <v>130.0963407525951</v>
       </c>
       <c r="C34" t="n">
-        <v>113.6560701363919</v>
+        <v>113.6560701363918</v>
       </c>
       <c r="D34" t="n">
-        <v>102.1733296528103</v>
+        <v>102.1733296528102</v>
       </c>
       <c r="E34" t="n">
         <v>103.5753384028549</v>
       </c>
       <c r="F34" t="n">
-        <v>107.2584460530059</v>
+        <v>107.2584460530058</v>
       </c>
       <c r="G34" t="n">
-        <v>109.6534850559213</v>
+        <v>109.6534850559212</v>
       </c>
       <c r="H34" t="n">
-        <v>90.62431395040036</v>
+        <v>90.62431395040068</v>
       </c>
       <c r="I34" t="n">
-        <v>53.50080851218456</v>
+        <v>53.50080851218453</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>19.78931492044185</v>
+        <v>19.78931492044182</v>
       </c>
       <c r="S34" t="n">
         <v>125.3502975200123</v>
       </c>
       <c r="T34" t="n">
-        <v>180.5807397898061</v>
+        <v>180.580739789806</v>
       </c>
       <c r="U34" t="n">
         <v>224.2329955729038</v>
       </c>
       <c r="V34" t="n">
-        <v>215.4205190323645</v>
+        <v>215.4205190323644</v>
       </c>
       <c r="W34" t="n">
-        <v>220.5525992687056</v>
+        <v>220.5525992687055</v>
       </c>
       <c r="X34" t="n">
-        <v>180.2340549414047</v>
+        <v>180.2340549414046</v>
       </c>
       <c r="Y34" t="n">
         <v>166.7619730476141</v>
@@ -3286,7 +3286,7 @@
         <v>247.5517184884972</v>
       </c>
       <c r="I35" t="n">
-        <v>12.74164995514128</v>
+        <v>12.74164995514126</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>68.1416296963674</v>
+        <v>68.14162969636737</v>
       </c>
       <c r="T35" t="n">
-        <v>162.3254641204413</v>
+        <v>162.3254641204431</v>
       </c>
       <c r="U35" t="n">
-        <v>198.7281997027622</v>
+        <v>198.7281997027611</v>
       </c>
       <c r="V35" t="n">
         <v>290.6128105393753</v>
@@ -3429,7 +3429,7 @@
         <v>113.6560701363918</v>
       </c>
       <c r="D37" t="n">
-        <v>102.1733296528103</v>
+        <v>102.1733296528102</v>
       </c>
       <c r="E37" t="n">
         <v>103.5753384028549</v>
@@ -3438,13 +3438,13 @@
         <v>107.2584460530058</v>
       </c>
       <c r="G37" t="n">
-        <v>109.6534850559213</v>
+        <v>109.6534850559212</v>
       </c>
       <c r="H37" t="n">
         <v>90.62431395040068</v>
       </c>
       <c r="I37" t="n">
-        <v>53.50080851218454</v>
+        <v>53.50080851218453</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>19.78931492044143</v>
+        <v>19.78931492044182</v>
       </c>
       <c r="S37" t="n">
         <v>125.3502975200123</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>68.14162969636739</v>
+        <v>68.14162969636737</v>
       </c>
       <c r="T38" t="n">
         <v>162.3254641204419</v>
       </c>
       <c r="U38" t="n">
-        <v>198.7281997027613</v>
+        <v>198.7281997027622</v>
       </c>
       <c r="V38" t="n">
         <v>290.6128105393753</v>
@@ -3678,7 +3678,7 @@
         <v>109.6534850559212</v>
       </c>
       <c r="H40" t="n">
-        <v>90.62431395040076</v>
+        <v>90.62431395040068</v>
       </c>
       <c r="I40" t="n">
         <v>53.50080851218453</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.1416296963674</v>
+        <v>68.14162969636739</v>
       </c>
       <c r="T41" t="n">
         <v>162.3254641204419</v>
       </c>
       <c r="U41" t="n">
-        <v>198.7281997027611</v>
+        <v>198.7281997027627</v>
       </c>
       <c r="V41" t="n">
         <v>290.6128105393753</v>
@@ -3805,7 +3805,7 @@
         <v>324.1963292786743</v>
       </c>
       <c r="X41" t="n">
-        <v>340.9105952752288</v>
+        <v>340.9105952752282</v>
       </c>
       <c r="Y41" t="n">
         <v>341.200937743882</v>
@@ -3839,7 +3839,7 @@
         <v>67.75841494660261</v>
       </c>
       <c r="I42" t="n">
-        <v>12.40831335828638</v>
+        <v>12.40831335828639</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>113.6560701363918</v>
       </c>
       <c r="D43" t="n">
-        <v>102.1733296528103</v>
+        <v>102.1733296528102</v>
       </c>
       <c r="E43" t="n">
         <v>103.5753384028549</v>
@@ -3912,13 +3912,13 @@
         <v>107.2584460530058</v>
       </c>
       <c r="G43" t="n">
-        <v>109.6534850559213</v>
+        <v>109.6534850559212</v>
       </c>
       <c r="H43" t="n">
-        <v>90.62431395040069</v>
+        <v>90.62431395040068</v>
       </c>
       <c r="I43" t="n">
-        <v>53.50080851218454</v>
+        <v>53.50080851218453</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>19.78931492044188</v>
+        <v>19.78931492044183</v>
       </c>
       <c r="S43" t="n">
         <v>125.3502975200123</v>
@@ -3985,7 +3985,7 @@
         <v>344.6929220303612</v>
       </c>
       <c r="E44" t="n">
-        <v>354.4704447507639</v>
+        <v>354.4704447507634</v>
       </c>
       <c r="F44" t="n">
         <v>361.0937393483405</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.1416296963674</v>
+        <v>68.14162969636739</v>
       </c>
       <c r="T44" t="n">
-        <v>162.3254641204419</v>
+        <v>162.3254641204431</v>
       </c>
       <c r="U44" t="n">
         <v>198.7281997027611</v>
@@ -4076,7 +4076,7 @@
         <v>67.75841494660261</v>
       </c>
       <c r="I45" t="n">
-        <v>12.40831335828638</v>
+        <v>12.40831335828639</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>113.6560701363918</v>
       </c>
       <c r="D46" t="n">
-        <v>102.1733296528103</v>
+        <v>102.1733296528102</v>
       </c>
       <c r="E46" t="n">
         <v>103.5753384028549</v>
@@ -4152,7 +4152,7 @@
         <v>109.6534850559213</v>
       </c>
       <c r="H46" t="n">
-        <v>90.62431395040068</v>
+        <v>90.62431395040066</v>
       </c>
       <c r="I46" t="n">
         <v>53.50080851218453</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>19.78931492044188</v>
+        <v>19.78931492044183</v>
       </c>
       <c r="S46" t="n">
         <v>125.3502975200123</v>
       </c>
       <c r="T46" t="n">
-        <v>180.5807397898057</v>
+        <v>180.580739789806</v>
       </c>
       <c r="U46" t="n">
         <v>224.2329955729038</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61.09965607931179</v>
+        <v>56.39750280167351</v>
       </c>
       <c r="C2" t="n">
-        <v>55.01546943298597</v>
+        <v>50.3133161553477</v>
       </c>
       <c r="D2" t="n">
-        <v>54.59194356645058</v>
+        <v>33.32330814943931</v>
       </c>
       <c r="E2" t="n">
-        <v>44.29213212375134</v>
+        <v>23.02349670674008</v>
       </c>
       <c r="F2" t="n">
-        <v>27.30212411784296</v>
+        <v>6.033488700831693</v>
       </c>
       <c r="G2" t="n">
-        <v>10.31211611193457</v>
+        <v>1.345608634067944</v>
       </c>
       <c r="H2" t="n">
-        <v>10.31211611193457</v>
+        <v>1.345608634067944</v>
       </c>
       <c r="I2" t="n">
         <v>1.345608634067944</v>
       </c>
       <c r="J2" t="n">
-        <v>1.345608634067944</v>
+        <v>17.99751548065875</v>
       </c>
       <c r="K2" t="n">
-        <v>1.345608634067944</v>
+        <v>17.99751548065875</v>
       </c>
       <c r="L2" t="n">
-        <v>1.345608634067944</v>
+        <v>17.99751548065875</v>
       </c>
       <c r="M2" t="n">
-        <v>1.345608634067944</v>
+        <v>33.97661801021559</v>
       </c>
       <c r="N2" t="n">
-        <v>17.99751548065875</v>
+        <v>33.97661801021559</v>
       </c>
       <c r="O2" t="n">
-        <v>34.64942232724955</v>
+        <v>33.97661801021559</v>
       </c>
       <c r="P2" t="n">
-        <v>34.64942232724955</v>
+        <v>33.97661801021559</v>
       </c>
       <c r="Q2" t="n">
-        <v>51.30132917384036</v>
+        <v>50.62852485680639</v>
       </c>
       <c r="R2" t="n">
         <v>67.2804317033972</v>
       </c>
       <c r="S2" t="n">
-        <v>67.2804317033972</v>
+        <v>62.57827842575892</v>
       </c>
       <c r="T2" t="n">
-        <v>67.2804317033972</v>
+        <v>62.57827842575892</v>
       </c>
       <c r="U2" t="n">
-        <v>67.2804317033972</v>
+        <v>62.57827842575892</v>
       </c>
       <c r="V2" t="n">
-        <v>67.2804317033972</v>
+        <v>62.57827842575892</v>
       </c>
       <c r="W2" t="n">
-        <v>67.2804317033972</v>
+        <v>62.57827842575892</v>
       </c>
       <c r="X2" t="n">
-        <v>67.2804317033972</v>
+        <v>62.57827842575892</v>
       </c>
       <c r="Y2" t="n">
-        <v>67.2804317033972</v>
+        <v>62.57827842575892</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.29042369748881</v>
+        <v>35.32562464588472</v>
       </c>
       <c r="C3" t="n">
-        <v>33.30041569158043</v>
+        <v>35.32562464588472</v>
       </c>
       <c r="D3" t="n">
-        <v>16.31040768567204</v>
+        <v>35.32562464588472</v>
       </c>
       <c r="E3" t="n">
-        <v>16.31040768567204</v>
+        <v>35.32562464588472</v>
       </c>
       <c r="F3" t="n">
-        <v>1.345608634067944</v>
+        <v>35.32562464588472</v>
       </c>
       <c r="G3" t="n">
-        <v>1.345608634067944</v>
+        <v>35.32562464588472</v>
       </c>
       <c r="H3" t="n">
-        <v>1.345608634067944</v>
+        <v>18.33561663997633</v>
       </c>
       <c r="I3" t="n">
         <v>1.345608634067944</v>
       </c>
       <c r="J3" t="n">
-        <v>1.345608634067944</v>
+        <v>17.99751548065875</v>
       </c>
       <c r="K3" t="n">
-        <v>17.99751548065875</v>
+        <v>34.64942232724955</v>
       </c>
       <c r="L3" t="n">
-        <v>17.99751548065875</v>
+        <v>34.64942232724955</v>
       </c>
       <c r="M3" t="n">
-        <v>34.64942232724955</v>
+        <v>50.62852485680639</v>
       </c>
       <c r="N3" t="n">
-        <v>34.64942232724955</v>
+        <v>50.62852485680639</v>
       </c>
       <c r="O3" t="n">
-        <v>51.30132917384036</v>
+        <v>50.62852485680639</v>
       </c>
       <c r="P3" t="n">
-        <v>51.30132917384036</v>
+        <v>50.62852485680639</v>
       </c>
       <c r="Q3" t="n">
-        <v>67.2804317033972</v>
+        <v>50.62852485680639</v>
       </c>
       <c r="R3" t="n">
         <v>67.2804317033972</v>
@@ -4442,19 +4442,19 @@
         <v>67.2804317033972</v>
       </c>
       <c r="U3" t="n">
-        <v>67.2804317033972</v>
+        <v>50.29042369748881</v>
       </c>
       <c r="V3" t="n">
-        <v>67.2804317033972</v>
+        <v>35.32562464588472</v>
       </c>
       <c r="W3" t="n">
-        <v>67.2804317033972</v>
+        <v>35.32562464588472</v>
       </c>
       <c r="X3" t="n">
-        <v>67.2804317033972</v>
+        <v>35.32562464588472</v>
       </c>
       <c r="Y3" t="n">
-        <v>67.2804317033972</v>
+        <v>35.32562464588472</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.30041569158043</v>
+        <v>35.32562464588472</v>
       </c>
       <c r="C4" t="n">
-        <v>33.30041569158043</v>
+        <v>35.32562464588472</v>
       </c>
       <c r="D4" t="n">
-        <v>33.30041569158043</v>
+        <v>35.32562464588472</v>
       </c>
       <c r="E4" t="n">
-        <v>16.31040768567204</v>
+        <v>35.32562464588472</v>
       </c>
       <c r="F4" t="n">
-        <v>16.31040768567204</v>
+        <v>18.33561663997633</v>
       </c>
       <c r="G4" t="n">
-        <v>16.31040768567204</v>
+        <v>18.33561663997633</v>
       </c>
       <c r="H4" t="n">
         <v>1.345608634067944</v>
@@ -4494,46 +4494,46 @@
         <v>1.345608634067944</v>
       </c>
       <c r="L4" t="n">
-        <v>17.99751548065875</v>
+        <v>1.345608634067944</v>
       </c>
       <c r="M4" t="n">
-        <v>34.64942232724955</v>
+        <v>1.345608634067944</v>
       </c>
       <c r="N4" t="n">
-        <v>34.64942232724955</v>
+        <v>17.32471116362478</v>
       </c>
       <c r="O4" t="n">
-        <v>34.64942232724955</v>
+        <v>33.97661801021559</v>
       </c>
       <c r="P4" t="n">
-        <v>51.30132917384036</v>
+        <v>50.62852485680639</v>
       </c>
       <c r="Q4" t="n">
         <v>67.2804317033972</v>
       </c>
       <c r="R4" t="n">
-        <v>67.2804317033972</v>
+        <v>50.29042369748881</v>
       </c>
       <c r="S4" t="n">
-        <v>67.2804317033972</v>
+        <v>50.29042369748881</v>
       </c>
       <c r="T4" t="n">
-        <v>67.2804317033972</v>
+        <v>50.29042369748881</v>
       </c>
       <c r="U4" t="n">
         <v>50.29042369748881</v>
       </c>
       <c r="V4" t="n">
-        <v>33.30041569158043</v>
+        <v>50.29042369748881</v>
       </c>
       <c r="W4" t="n">
-        <v>33.30041569158043</v>
+        <v>50.29042369748881</v>
       </c>
       <c r="X4" t="n">
-        <v>33.30041569158043</v>
+        <v>50.29042369748881</v>
       </c>
       <c r="Y4" t="n">
-        <v>33.30041569158043</v>
+        <v>35.32562464588472</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44.1096480734034</v>
+        <v>61.09965607931179</v>
       </c>
       <c r="C5" t="n">
-        <v>33.74683401597471</v>
+        <v>55.01546943298597</v>
       </c>
       <c r="D5" t="n">
-        <v>33.32330814943931</v>
+        <v>40.01350471264847</v>
       </c>
       <c r="E5" t="n">
         <v>23.02349670674008</v>
@@ -4567,28 +4567,28 @@
         <v>1.345608634067944</v>
       </c>
       <c r="J5" t="n">
-        <v>1.345608634067944</v>
+        <v>17.99751548065875</v>
       </c>
       <c r="K5" t="n">
-        <v>17.32471116362478</v>
+        <v>17.99751548065875</v>
       </c>
       <c r="L5" t="n">
-        <v>17.32471116362478</v>
+        <v>34.64942232724955</v>
       </c>
       <c r="M5" t="n">
-        <v>33.97661801021559</v>
+        <v>34.64942232724955</v>
       </c>
       <c r="N5" t="n">
-        <v>50.62852485680639</v>
+        <v>34.64942232724955</v>
       </c>
       <c r="O5" t="n">
-        <v>67.2804317033972</v>
+        <v>34.64942232724955</v>
       </c>
       <c r="P5" t="n">
-        <v>67.2804317033972</v>
+        <v>34.64942232724955</v>
       </c>
       <c r="Q5" t="n">
-        <v>67.2804317033972</v>
+        <v>51.30132917384036</v>
       </c>
       <c r="R5" t="n">
         <v>67.2804317033972</v>
@@ -4603,16 +4603,16 @@
         <v>67.2804317033972</v>
       </c>
       <c r="V5" t="n">
-        <v>50.29042369748881</v>
+        <v>67.2804317033972</v>
       </c>
       <c r="W5" t="n">
-        <v>50.29042369748881</v>
+        <v>67.2804317033972</v>
       </c>
       <c r="X5" t="n">
-        <v>50.29042369748881</v>
+        <v>67.2804317033972</v>
       </c>
       <c r="Y5" t="n">
-        <v>50.29042369748881</v>
+        <v>67.2804317033972</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.345608634067944</v>
+        <v>33.30041569158043</v>
       </c>
       <c r="C6" t="n">
-        <v>1.345608634067944</v>
+        <v>33.30041569158043</v>
       </c>
       <c r="D6" t="n">
-        <v>1.345608634067944</v>
+        <v>18.33561663997633</v>
       </c>
       <c r="E6" t="n">
-        <v>1.345608634067944</v>
+        <v>18.33561663997633</v>
       </c>
       <c r="F6" t="n">
-        <v>1.345608634067944</v>
+        <v>18.33561663997633</v>
       </c>
       <c r="G6" t="n">
-        <v>1.345608634067944</v>
+        <v>18.33561663997633</v>
       </c>
       <c r="H6" t="n">
-        <v>1.345608634067944</v>
+        <v>18.33561663997633</v>
       </c>
       <c r="I6" t="n">
         <v>1.345608634067944</v>
       </c>
       <c r="J6" t="n">
-        <v>1.345608634067944</v>
+        <v>17.99751548065875</v>
       </c>
       <c r="K6" t="n">
-        <v>1.345608634067944</v>
+        <v>17.99751548065875</v>
       </c>
       <c r="L6" t="n">
-        <v>1.345608634067944</v>
+        <v>17.99751548065875</v>
       </c>
       <c r="M6" t="n">
-        <v>17.99751548065875</v>
+        <v>34.64942232724955</v>
       </c>
       <c r="N6" t="n">
-        <v>33.97661801021559</v>
+        <v>34.64942232724955</v>
       </c>
       <c r="O6" t="n">
-        <v>33.97661801021559</v>
+        <v>34.64942232724955</v>
       </c>
       <c r="P6" t="n">
-        <v>33.97661801021559</v>
+        <v>34.64942232724955</v>
       </c>
       <c r="Q6" t="n">
         <v>50.62852485680639</v>
@@ -4673,25 +4673,25 @@
         <v>67.2804317033972</v>
       </c>
       <c r="S6" t="n">
-        <v>50.29042369748881</v>
+        <v>67.2804317033972</v>
       </c>
       <c r="T6" t="n">
-        <v>50.29042369748881</v>
+        <v>67.2804317033972</v>
       </c>
       <c r="U6" t="n">
         <v>50.29042369748881</v>
       </c>
       <c r="V6" t="n">
-        <v>50.29042369748881</v>
+        <v>33.30041569158043</v>
       </c>
       <c r="W6" t="n">
         <v>33.30041569158043</v>
       </c>
       <c r="X6" t="n">
-        <v>16.31040768567204</v>
+        <v>33.30041569158043</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.345608634067944</v>
+        <v>33.30041569158043</v>
       </c>
     </row>
     <row r="7">
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.345608634067944</v>
+        <v>16.31040768567204</v>
       </c>
       <c r="C7" t="n">
-        <v>1.345608634067944</v>
+        <v>16.31040768567204</v>
       </c>
       <c r="D7" t="n">
-        <v>1.345608634067944</v>
+        <v>16.31040768567204</v>
       </c>
       <c r="E7" t="n">
         <v>1.345608634067944</v>
@@ -4725,40 +4725,40 @@
         <v>1.345608634067944</v>
       </c>
       <c r="J7" t="n">
-        <v>15.42815803927846</v>
+        <v>1.345608634067944</v>
       </c>
       <c r="K7" t="n">
-        <v>32.08006488586927</v>
+        <v>17.99751548065875</v>
       </c>
       <c r="L7" t="n">
-        <v>32.08006488586927</v>
+        <v>17.99751548065875</v>
       </c>
       <c r="M7" t="n">
-        <v>32.08006488586927</v>
+        <v>17.99751548065875</v>
       </c>
       <c r="N7" t="n">
-        <v>48.73197173246007</v>
+        <v>33.97661801021559</v>
       </c>
       <c r="O7" t="n">
-        <v>65.38387857905087</v>
+        <v>50.62852485680639</v>
       </c>
       <c r="P7" t="n">
-        <v>65.38387857905087</v>
+        <v>67.2804317033972</v>
       </c>
       <c r="Q7" t="n">
         <v>67.2804317033972</v>
       </c>
       <c r="R7" t="n">
+        <v>67.2804317033972</v>
+      </c>
+      <c r="S7" t="n">
+        <v>67.2804317033972</v>
+      </c>
+      <c r="T7" t="n">
+        <v>67.2804317033972</v>
+      </c>
+      <c r="U7" t="n">
         <v>50.29042369748881</v>
-      </c>
-      <c r="S7" t="n">
-        <v>50.29042369748881</v>
-      </c>
-      <c r="T7" t="n">
-        <v>50.29042369748881</v>
-      </c>
-      <c r="U7" t="n">
-        <v>33.30041569158043</v>
       </c>
       <c r="V7" t="n">
         <v>33.30041569158043</v>
@@ -4767,10 +4767,10 @@
         <v>33.30041569158043</v>
       </c>
       <c r="X7" t="n">
-        <v>18.33561663997633</v>
+        <v>16.31040768567204</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.33561663997633</v>
+        <v>16.31040768567204</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>498.8891511502408</v>
+        <v>89.89486565009841</v>
       </c>
       <c r="C8" t="n">
-        <v>492.804964503915</v>
+        <v>50.97824050252657</v>
       </c>
       <c r="D8" t="n">
-        <v>492.3814386373796</v>
+        <v>50.55471463599117</v>
       </c>
       <c r="E8" t="n">
-        <v>257.8231669123816</v>
+        <v>40.25490319329194</v>
       </c>
       <c r="F8" t="n">
-        <v>23.26489518738359</v>
+        <v>23.26489518738355</v>
       </c>
       <c r="G8" t="n">
-        <v>18.57701512061984</v>
+        <v>18.57701512061981</v>
       </c>
       <c r="H8" t="n">
-        <v>18.57701512061984</v>
+        <v>18.57701512061981</v>
       </c>
       <c r="I8" t="n">
-        <v>18.57701512061984</v>
+        <v>18.57701512061981</v>
       </c>
       <c r="J8" t="n">
-        <v>18.57701512061984</v>
+        <v>248.4675772382899</v>
       </c>
       <c r="K8" t="n">
-        <v>18.57701512061984</v>
+        <v>248.4675772382899</v>
       </c>
       <c r="L8" t="n">
-        <v>18.57701512061984</v>
+        <v>428.5129861060852</v>
       </c>
       <c r="M8" t="n">
-        <v>18.57701512061984</v>
+        <v>658.4035482237553</v>
       </c>
       <c r="N8" t="n">
-        <v>248.4675772382904</v>
+        <v>658.4035482237553</v>
       </c>
       <c r="O8" t="n">
-        <v>478.3581393559609</v>
+        <v>888.2941103414254</v>
       </c>
       <c r="P8" t="n">
-        <v>698.9601939133215</v>
+        <v>888.2941103414254</v>
       </c>
       <c r="Q8" t="n">
-        <v>928.850756030992</v>
+        <v>888.2941103414254</v>
       </c>
       <c r="R8" t="n">
-        <v>928.850756030992</v>
+        <v>928.8507560309902</v>
       </c>
       <c r="S8" t="n">
-        <v>793.5696808250929</v>
+        <v>793.569680825091</v>
       </c>
       <c r="T8" t="n">
-        <v>571.3631967719516</v>
+        <v>793.569680825091</v>
       </c>
       <c r="U8" t="n">
-        <v>571.3631967719516</v>
+        <v>793.569680825091</v>
       </c>
       <c r="V8" t="n">
-        <v>571.3631967719516</v>
+        <v>793.569680825091</v>
       </c>
       <c r="W8" t="n">
-        <v>505.0699267743262</v>
+        <v>793.569680825091</v>
       </c>
       <c r="X8" t="n">
-        <v>505.0699267743262</v>
+        <v>559.0114091000935</v>
       </c>
       <c r="Y8" t="n">
-        <v>505.0699267743262</v>
+        <v>324.4531373750959</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>269.4692441522817</v>
+        <v>563.4127857560999</v>
       </c>
       <c r="C9" t="n">
-        <v>135.4741729012274</v>
+        <v>563.4127857560999</v>
       </c>
       <c r="D9" t="n">
-        <v>18.57701512061984</v>
+        <v>446.5156279754923</v>
       </c>
       <c r="E9" t="n">
-        <v>18.57701512061984</v>
+        <v>326.0228119678203</v>
       </c>
       <c r="F9" t="n">
-        <v>18.57701512061984</v>
+        <v>217.0629321503249</v>
       </c>
       <c r="G9" t="n">
-        <v>18.57701512061984</v>
+        <v>110.0728194646636</v>
       </c>
       <c r="H9" t="n">
-        <v>18.57701512061984</v>
+        <v>39.32560650037964</v>
       </c>
       <c r="I9" t="n">
-        <v>18.57701512061984</v>
+        <v>18.57701512061981</v>
       </c>
       <c r="J9" t="n">
-        <v>18.57701512061984</v>
+        <v>211.389872683253</v>
       </c>
       <c r="K9" t="n">
-        <v>239.1790696779805</v>
+        <v>211.389872683253</v>
       </c>
       <c r="L9" t="n">
-        <v>469.069631795651</v>
+        <v>211.389872683253</v>
       </c>
       <c r="M9" t="n">
-        <v>469.069631795651</v>
+        <v>211.389872683253</v>
       </c>
       <c r="N9" t="n">
-        <v>469.069631795651</v>
+        <v>211.389872683253</v>
       </c>
       <c r="O9" t="n">
-        <v>698.9601939133215</v>
+        <v>441.2804348009231</v>
       </c>
       <c r="P9" t="n">
-        <v>928.850756030992</v>
+        <v>671.1709969185931</v>
       </c>
       <c r="Q9" t="n">
-        <v>928.850756030992</v>
+        <v>901.0615590362631</v>
       </c>
       <c r="R9" t="n">
-        <v>928.850756030992</v>
+        <v>928.8507560309902</v>
       </c>
       <c r="S9" t="n">
-        <v>928.850756030992</v>
+        <v>820.860746145299</v>
       </c>
       <c r="T9" t="n">
-        <v>928.850756030992</v>
+        <v>661.5188823323072</v>
       </c>
       <c r="U9" t="n">
-        <v>928.850756030992</v>
+        <v>563.4127857560999</v>
       </c>
       <c r="V9" t="n">
-        <v>928.850756030992</v>
+        <v>563.4127857560999</v>
       </c>
       <c r="W9" t="n">
-        <v>715.6175877673207</v>
+        <v>563.4127857560999</v>
       </c>
       <c r="X9" t="n">
-        <v>539.2916059062136</v>
+        <v>563.4127857560999</v>
       </c>
       <c r="Y9" t="n">
-        <v>409.7722767878683</v>
+        <v>563.4127857560999</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8274061950764</v>
+        <v>306.0164334545772</v>
       </c>
       <c r="C10" t="n">
-        <v>185.8274061950764</v>
+        <v>134.9230610162937</v>
       </c>
       <c r="D10" t="n">
-        <v>185.8274061950764</v>
+        <v>134.9230610162937</v>
       </c>
       <c r="E10" t="n">
-        <v>185.8274061950764</v>
+        <v>134.9230610162937</v>
       </c>
       <c r="F10" t="n">
-        <v>185.8274061950764</v>
+        <v>134.9230610162937</v>
       </c>
       <c r="G10" t="n">
-        <v>18.57701512061984</v>
+        <v>134.9230610162937</v>
       </c>
       <c r="H10" t="n">
-        <v>18.57701512061984</v>
+        <v>134.9230610162937</v>
       </c>
       <c r="I10" t="n">
-        <v>18.57701512061984</v>
+        <v>18.57701512061981</v>
       </c>
       <c r="J10" t="n">
-        <v>19.09871215323159</v>
+        <v>32.65956452583033</v>
       </c>
       <c r="K10" t="n">
-        <v>173.6510398754696</v>
+        <v>187.2118922480683</v>
       </c>
       <c r="L10" t="n">
-        <v>403.5416019931401</v>
+        <v>417.1024543657384</v>
       </c>
       <c r="M10" t="n">
-        <v>633.4321641108106</v>
+        <v>646.9930164834084</v>
       </c>
       <c r="N10" t="n">
-        <v>863.3227262284812</v>
+        <v>657.647285978867</v>
       </c>
       <c r="O10" t="n">
-        <v>863.3227262284812</v>
+        <v>657.647285978867</v>
       </c>
       <c r="P10" t="n">
-        <v>863.3227262284812</v>
+        <v>863.3227262284794</v>
       </c>
       <c r="Q10" t="n">
-        <v>928.850756030992</v>
+        <v>928.8507560309902</v>
       </c>
       <c r="R10" t="n">
-        <v>843.5780377063917</v>
+        <v>928.8507560309902</v>
       </c>
       <c r="S10" t="n">
-        <v>657.1862695863019</v>
+        <v>928.8507560309902</v>
       </c>
       <c r="T10" t="n">
-        <v>657.1862695863019</v>
+        <v>928.8507560309902</v>
       </c>
       <c r="U10" t="n">
-        <v>657.1862695863019</v>
+        <v>928.8507560309902</v>
       </c>
       <c r="V10" t="n">
-        <v>657.1862695863019</v>
+        <v>928.8507560309902</v>
       </c>
       <c r="W10" t="n">
-        <v>657.1862695863019</v>
+        <v>928.8507560309902</v>
       </c>
       <c r="X10" t="n">
-        <v>598.2628112003562</v>
+        <v>718.4518384598568</v>
       </c>
       <c r="Y10" t="n">
-        <v>373.5271125891209</v>
+        <v>493.7161398486215</v>
       </c>
     </row>
     <row r="11">
@@ -5038,40 +5038,40 @@
         <v>97.30303061488033</v>
       </c>
       <c r="I11" t="n">
-        <v>84.43267712483865</v>
+        <v>84.43267712483866</v>
       </c>
       <c r="J11" t="n">
-        <v>375.7136611115088</v>
+        <v>375.7136611115089</v>
       </c>
       <c r="K11" t="n">
-        <v>969.4697194667882</v>
+        <v>969.4697194667883</v>
       </c>
       <c r="L11" t="n">
-        <v>1451.771116160239</v>
+        <v>1751.033564726869</v>
       </c>
       <c r="M11" t="n">
-        <v>2304.834842280194</v>
+        <v>2604.097290846823</v>
       </c>
       <c r="N11" t="n">
-        <v>3136.002810567955</v>
+        <v>3435.265259134584</v>
       </c>
       <c r="O11" t="n">
-        <v>3853.274533977758</v>
+        <v>4152.536982544387</v>
       </c>
       <c r="P11" t="n">
-        <v>3853.274533977758</v>
+        <v>4153.622302665462</v>
       </c>
       <c r="Q11" t="n">
-        <v>4221.633856241932</v>
+        <v>4153.622302665462</v>
       </c>
       <c r="R11" t="n">
-        <v>4221.633856241932</v>
+        <v>4221.633856241933</v>
       </c>
       <c r="S11" t="n">
-        <v>4152.803927255703</v>
+        <v>4152.803927255704</v>
       </c>
       <c r="T11" t="n">
-        <v>3988.838811982529</v>
+        <v>3988.838811982531</v>
       </c>
       <c r="U11" t="n">
         <v>3788.103256727215</v>
@@ -5086,7 +5086,7 @@
         <v>2822.729786936025</v>
       </c>
       <c r="Y11" t="n">
-        <v>2478.082375073518</v>
+        <v>2478.082375073519</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>165.4091703621003</v>
       </c>
       <c r="H12" t="n">
-        <v>96.96632698169358</v>
+        <v>96.9663269816936</v>
       </c>
       <c r="I12" t="n">
-        <v>84.43267712483865</v>
+        <v>84.43267712483866</v>
       </c>
       <c r="J12" t="n">
         <v>299.3393678140363</v>
       </c>
       <c r="K12" t="n">
-        <v>299.3393678140363</v>
+        <v>792.9075039465986</v>
       </c>
       <c r="L12" t="n">
-        <v>553.9254682677727</v>
+        <v>792.9075039465986</v>
       </c>
       <c r="M12" t="n">
-        <v>1456.155171390343</v>
+        <v>795.1714854735691</v>
       </c>
       <c r="N12" t="n">
-        <v>1464.314574962523</v>
+        <v>803.3308890457488</v>
       </c>
       <c r="O12" t="n">
-        <v>1464.314574962523</v>
+        <v>1128.69800076712</v>
       </c>
       <c r="P12" t="n">
-        <v>2070.675836591964</v>
+        <v>1735.059262396561</v>
       </c>
       <c r="Q12" t="n">
-        <v>2070.675836591964</v>
+        <v>2114.754658760389</v>
       </c>
       <c r="R12" t="n">
         <v>2114.754658760389</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>771.7476183001612</v>
+        <v>771.7476183001613</v>
       </c>
       <c r="C13" t="n">
-        <v>656.9435070512806</v>
+        <v>656.9435070512807</v>
       </c>
       <c r="D13" t="n">
-        <v>553.7381235635934</v>
+        <v>553.7381235635936</v>
       </c>
       <c r="E13" t="n">
-        <v>449.1165696213157</v>
+        <v>449.1165696213159</v>
       </c>
       <c r="F13" t="n">
-        <v>340.7747049213098</v>
+        <v>340.7747049213101</v>
       </c>
       <c r="G13" t="n">
-        <v>230.0136089052278</v>
+        <v>230.0136089052281</v>
       </c>
       <c r="H13" t="n">
-        <v>138.473897844217</v>
+        <v>138.4738978442173</v>
       </c>
       <c r="I13" t="n">
-        <v>84.43267712483865</v>
+        <v>84.43267712483866</v>
       </c>
       <c r="J13" t="n">
         <v>167.5452923068058</v>
@@ -5244,7 +5244,7 @@
         <v>1071.604500926635</v>
       </c>
       <c r="Y13" t="n">
-        <v>903.1580635048027</v>
+        <v>903.1580635048028</v>
       </c>
     </row>
     <row r="14">
@@ -5272,31 +5272,31 @@
         <v>347.3552715123519</v>
       </c>
       <c r="H14" t="n">
-        <v>97.30303061487993</v>
+        <v>97.30303061487996</v>
       </c>
       <c r="I14" t="n">
         <v>84.43267712483865</v>
       </c>
       <c r="J14" t="n">
-        <v>84.43267712483865</v>
+        <v>375.7136611115088</v>
       </c>
       <c r="K14" t="n">
-        <v>678.188735480118</v>
+        <v>969.4697194667882</v>
       </c>
       <c r="L14" t="n">
-        <v>1459.752580740198</v>
+        <v>1751.033564726869</v>
       </c>
       <c r="M14" t="n">
-        <v>2312.816306860153</v>
+        <v>1751.033564726869</v>
       </c>
       <c r="N14" t="n">
-        <v>3143.984275147914</v>
+        <v>2582.20153301463</v>
       </c>
       <c r="O14" t="n">
-        <v>3629.626382086185</v>
+        <v>3261.26705982201</v>
       </c>
       <c r="P14" t="n">
-        <v>4221.633856241932</v>
+        <v>3853.274533977758</v>
       </c>
       <c r="Q14" t="n">
         <v>4221.633856241932</v>
@@ -5360,22 +5360,22 @@
         <v>299.3393678140363</v>
       </c>
       <c r="K15" t="n">
-        <v>299.3393678140363</v>
+        <v>792.9075039465986</v>
       </c>
       <c r="L15" t="n">
-        <v>299.3393678140363</v>
+        <v>1074.195793499545</v>
       </c>
       <c r="M15" t="n">
-        <v>1201.569070936607</v>
+        <v>1076.459775026515</v>
       </c>
       <c r="N15" t="n">
-        <v>1209.728474508787</v>
+        <v>1084.619178598695</v>
       </c>
       <c r="O15" t="n">
-        <v>1209.728474508787</v>
+        <v>1084.619178598695</v>
       </c>
       <c r="P15" t="n">
-        <v>1816.089736138228</v>
+        <v>1690.980440228136</v>
       </c>
       <c r="Q15" t="n">
         <v>2070.675836591964</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>771.7476183001612</v>
+        <v>771.747618300161</v>
       </c>
       <c r="C16" t="n">
-        <v>656.9435070512806</v>
+        <v>656.9435070512803</v>
       </c>
       <c r="D16" t="n">
-        <v>553.7381235635935</v>
+        <v>553.7381235635933</v>
       </c>
       <c r="E16" t="n">
-        <v>449.1165696213158</v>
+        <v>449.1165696213156</v>
       </c>
       <c r="F16" t="n">
-        <v>340.7747049213099</v>
+        <v>340.7747049213098</v>
       </c>
       <c r="G16" t="n">
-        <v>230.0136089052278</v>
+        <v>230.0136089052277</v>
       </c>
       <c r="H16" t="n">
         <v>138.473897844217</v>
@@ -5454,13 +5454,13 @@
         <v>1827.874216930486</v>
       </c>
       <c r="P16" t="n">
-        <v>2112.430504853669</v>
+        <v>2112.430504853668</v>
       </c>
       <c r="Q16" t="n">
-        <v>2249.544421174755</v>
+        <v>2249.544421174754</v>
       </c>
       <c r="R16" t="n">
-        <v>2229.55521418441</v>
+        <v>2229.555214184409</v>
       </c>
       <c r="S16" t="n">
         <v>2102.938752042983</v>
@@ -5472,7 +5472,7 @@
         <v>1694.035989050347</v>
       </c>
       <c r="V16" t="n">
-        <v>1476.439505179272</v>
+        <v>1476.439505179271</v>
       </c>
       <c r="W16" t="n">
         <v>1253.659101877549</v>
@@ -5481,7 +5481,7 @@
         <v>1071.604500926635</v>
       </c>
       <c r="Y16" t="n">
-        <v>903.1580635048027</v>
+        <v>903.1580635048025</v>
       </c>
     </row>
     <row r="17">
@@ -5500,16 +5500,16 @@
         <v>1422.140458383568</v>
       </c>
       <c r="E17" t="n">
-        <v>1064.089504089868</v>
+        <v>1064.089504089867</v>
       </c>
       <c r="F17" t="n">
-        <v>699.3483532329581</v>
+        <v>699.3483532329576</v>
       </c>
       <c r="G17" t="n">
-        <v>347.3552715123524</v>
+        <v>347.3552715123519</v>
       </c>
       <c r="H17" t="n">
-        <v>97.30303061488033</v>
+        <v>97.30303061488031</v>
       </c>
       <c r="I17" t="n">
         <v>84.43267712483865</v>
@@ -5530,13 +5530,13 @@
         <v>3435.265259134584</v>
       </c>
       <c r="O17" t="n">
-        <v>3561.614828509713</v>
+        <v>3435.265259134584</v>
       </c>
       <c r="P17" t="n">
-        <v>4153.622302665461</v>
+        <v>3853.274533977758</v>
       </c>
       <c r="Q17" t="n">
-        <v>4153.622302665461</v>
+        <v>4221.633856241932</v>
       </c>
       <c r="R17" t="n">
         <v>4221.633856241932</v>
@@ -5545,7 +5545,7 @@
         <v>4152.803927255703</v>
       </c>
       <c r="T17" t="n">
-        <v>3988.83881198253</v>
+        <v>3988.838811982529</v>
       </c>
       <c r="U17" t="n">
         <v>3788.103256727215</v>
@@ -5594,28 +5594,28 @@
         <v>84.43267712483865</v>
       </c>
       <c r="J18" t="n">
-        <v>299.3393678140363</v>
+        <v>84.43267712483865</v>
       </c>
       <c r="K18" t="n">
-        <v>792.9075039465986</v>
+        <v>84.43267712483865</v>
       </c>
       <c r="L18" t="n">
-        <v>1504.771183452841</v>
+        <v>796.2963566310807</v>
       </c>
       <c r="M18" t="n">
-        <v>2062.516433019784</v>
+        <v>1500.233993558769</v>
       </c>
       <c r="N18" t="n">
-        <v>2070.675836591964</v>
+        <v>1508.393397130948</v>
       </c>
       <c r="O18" t="n">
-        <v>2070.675836591964</v>
+        <v>1508.393397130948</v>
       </c>
       <c r="P18" t="n">
-        <v>2070.675836591964</v>
+        <v>2114.754658760389</v>
       </c>
       <c r="Q18" t="n">
-        <v>2070.675836591964</v>
+        <v>2114.754658760389</v>
       </c>
       <c r="R18" t="n">
         <v>2114.754658760389</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>771.7476183001609</v>
+        <v>771.7476183001613</v>
       </c>
       <c r="C19" t="n">
-        <v>656.9435070512802</v>
+        <v>656.9435070512807</v>
       </c>
       <c r="D19" t="n">
-        <v>553.738123563593</v>
+        <v>553.7381235635933</v>
       </c>
       <c r="E19" t="n">
-        <v>449.1165696213154</v>
+        <v>449.1165696213156</v>
       </c>
       <c r="F19" t="n">
-        <v>340.7747049213095</v>
+        <v>340.7747049213098</v>
       </c>
       <c r="G19" t="n">
         <v>230.0136089052277</v>
@@ -5706,19 +5706,19 @@
         <v>1920.533964376512</v>
       </c>
       <c r="U19" t="n">
-        <v>1694.035989050346</v>
+        <v>1694.035989050347</v>
       </c>
       <c r="V19" t="n">
-        <v>1476.439505179271</v>
+        <v>1476.439505179272</v>
       </c>
       <c r="W19" t="n">
-        <v>1253.659101877548</v>
+        <v>1253.659101877549</v>
       </c>
       <c r="X19" t="n">
         <v>1071.604500926635</v>
       </c>
       <c r="Y19" t="n">
-        <v>903.1580635048024</v>
+        <v>903.1580635048028</v>
       </c>
     </row>
     <row r="20">
@@ -5728,55 +5728,55 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2124.150456598432</v>
+        <v>2124.150456598431</v>
       </c>
       <c r="C20" t="n">
-        <v>1770.315127101105</v>
+        <v>1770.315127101104</v>
       </c>
       <c r="D20" t="n">
         <v>1422.140458383568</v>
       </c>
       <c r="E20" t="n">
-        <v>1064.089504089868</v>
+        <v>1064.089504089867</v>
       </c>
       <c r="F20" t="n">
-        <v>699.3483532329581</v>
+        <v>699.3483532329576</v>
       </c>
       <c r="G20" t="n">
-        <v>347.3552715123523</v>
+        <v>347.3552715123519</v>
       </c>
       <c r="H20" t="n">
-        <v>97.30303061488034</v>
+        <v>97.30303061487993</v>
       </c>
       <c r="I20" t="n">
-        <v>84.43267712483866</v>
+        <v>84.43267712483865</v>
       </c>
       <c r="J20" t="n">
-        <v>375.7136611115089</v>
+        <v>375.7136611115088</v>
       </c>
       <c r="K20" t="n">
-        <v>375.7136611115089</v>
+        <v>969.4697194667881</v>
       </c>
       <c r="L20" t="n">
-        <v>791.7520884280214</v>
+        <v>1751.033564726868</v>
       </c>
       <c r="M20" t="n">
-        <v>1644.815814547976</v>
+        <v>1751.033564726868</v>
       </c>
       <c r="N20" t="n">
-        <v>2475.983782835737</v>
+        <v>2543.995336412208</v>
       </c>
       <c r="O20" t="n">
-        <v>3193.255506245539</v>
+        <v>3261.267059822011</v>
       </c>
       <c r="P20" t="n">
-        <v>3785.262980401287</v>
+        <v>3853.274533977758</v>
       </c>
       <c r="Q20" t="n">
-        <v>4153.622302665462</v>
+        <v>4221.633856241932</v>
       </c>
       <c r="R20" t="n">
-        <v>4221.633856241933</v>
+        <v>4221.633856241932</v>
       </c>
       <c r="S20" t="n">
         <v>4152.803927255703</v>
@@ -5788,7 +5788,7 @@
         <v>3788.103256727215</v>
       </c>
       <c r="V20" t="n">
-        <v>3494.554963253099</v>
+        <v>3494.554963253098</v>
       </c>
       <c r="W20" t="n">
         <v>3167.08392357767</v>
@@ -5797,7 +5797,7 @@
         <v>2822.729786936025</v>
       </c>
       <c r="Y20" t="n">
-        <v>2478.082375073519</v>
+        <v>2478.082375073518</v>
       </c>
     </row>
     <row r="21">
@@ -5825,28 +5825,28 @@
         <v>165.4091703621003</v>
       </c>
       <c r="H21" t="n">
-        <v>96.9663269816936</v>
+        <v>96.96632698169358</v>
       </c>
       <c r="I21" t="n">
-        <v>84.43267712483866</v>
+        <v>84.43267712483865</v>
       </c>
       <c r="J21" t="n">
-        <v>84.43267712483866</v>
+        <v>299.3393678140363</v>
       </c>
       <c r="K21" t="n">
-        <v>84.43267712483866</v>
+        <v>792.9075039465985</v>
       </c>
       <c r="L21" t="n">
-        <v>84.43267712483866</v>
+        <v>1074.195793499545</v>
       </c>
       <c r="M21" t="n">
-        <v>986.6623802474089</v>
+        <v>1076.459775026515</v>
       </c>
       <c r="N21" t="n">
-        <v>994.8217838195886</v>
+        <v>1084.619178598695</v>
       </c>
       <c r="O21" t="n">
-        <v>1690.980440228136</v>
+        <v>1084.619178598695</v>
       </c>
       <c r="P21" t="n">
         <v>1690.980440228136</v>
@@ -5895,28 +5895,28 @@
         <v>553.7381235635935</v>
       </c>
       <c r="E22" t="n">
-        <v>449.1165696213158</v>
+        <v>449.1165696213157</v>
       </c>
       <c r="F22" t="n">
-        <v>340.7747049213099</v>
+        <v>340.7747049213098</v>
       </c>
       <c r="G22" t="n">
-        <v>230.0136089052279</v>
+        <v>230.0136089052278</v>
       </c>
       <c r="H22" t="n">
         <v>138.473897844217</v>
       </c>
       <c r="I22" t="n">
-        <v>84.43267712483866</v>
+        <v>84.43267712483865</v>
       </c>
       <c r="J22" t="n">
-        <v>167.5452923068058</v>
+        <v>167.5452923068057</v>
       </c>
       <c r="K22" t="n">
         <v>400.0445415738046</v>
       </c>
       <c r="L22" t="n">
-        <v>744.2585099336745</v>
+        <v>744.2585099336744</v>
       </c>
       <c r="M22" t="n">
         <v>1119.423900729763</v>
@@ -5974,52 +5974,52 @@
         <v>1422.140458383568</v>
       </c>
       <c r="E23" t="n">
-        <v>1064.089504089868</v>
+        <v>1064.089504089867</v>
       </c>
       <c r="F23" t="n">
-        <v>699.3483532329579</v>
+        <v>699.3483532329576</v>
       </c>
       <c r="G23" t="n">
-        <v>347.3552715123522</v>
+        <v>347.3552715123519</v>
       </c>
       <c r="H23" t="n">
-        <v>97.30303061488034</v>
+        <v>97.30303061487993</v>
       </c>
       <c r="I23" t="n">
-        <v>84.43267712483866</v>
+        <v>84.43267712483865</v>
       </c>
       <c r="J23" t="n">
-        <v>84.43267712483866</v>
+        <v>375.7136611115088</v>
       </c>
       <c r="K23" t="n">
-        <v>678.188735480118</v>
+        <v>969.4697194667881</v>
       </c>
       <c r="L23" t="n">
-        <v>1459.752580740198</v>
+        <v>1751.033564726868</v>
       </c>
       <c r="M23" t="n">
-        <v>2312.816306860153</v>
+        <v>2013.17513681215</v>
       </c>
       <c r="N23" t="n">
-        <v>3143.984275147914</v>
+        <v>2844.343105099911</v>
       </c>
       <c r="O23" t="n">
-        <v>3193.255506245539</v>
+        <v>3561.614828509714</v>
       </c>
       <c r="P23" t="n">
-        <v>3785.262980401287</v>
+        <v>4153.622302665461</v>
       </c>
       <c r="Q23" t="n">
-        <v>4153.622302665462</v>
+        <v>4153.622302665461</v>
       </c>
       <c r="R23" t="n">
-        <v>4221.633856241933</v>
+        <v>4221.633856241932</v>
       </c>
       <c r="S23" t="n">
-        <v>4152.803927255704</v>
+        <v>4152.803927255703</v>
       </c>
       <c r="T23" t="n">
-        <v>3988.838811982531</v>
+        <v>3988.838811982529</v>
       </c>
       <c r="U23" t="n">
         <v>3788.103256727215</v>
@@ -6062,31 +6062,31 @@
         <v>165.4091703621003</v>
       </c>
       <c r="H24" t="n">
-        <v>96.9663269816936</v>
+        <v>96.96632698169358</v>
       </c>
       <c r="I24" t="n">
-        <v>84.43267712483866</v>
+        <v>84.43267712483865</v>
       </c>
       <c r="J24" t="n">
-        <v>84.43267712483866</v>
+        <v>299.3393678140363</v>
       </c>
       <c r="K24" t="n">
-        <v>84.43267712483866</v>
+        <v>792.9075039465985</v>
       </c>
       <c r="L24" t="n">
-        <v>796.2963566310807</v>
+        <v>792.9075039465985</v>
       </c>
       <c r="M24" t="n">
-        <v>798.5603381580512</v>
+        <v>795.1714854735689</v>
       </c>
       <c r="N24" t="n">
-        <v>806.7197417302309</v>
+        <v>803.3308890457486</v>
       </c>
       <c r="O24" t="n">
-        <v>1566.316039630321</v>
+        <v>1084.619178598695</v>
       </c>
       <c r="P24" t="n">
-        <v>2070.675836591964</v>
+        <v>1690.980440228136</v>
       </c>
       <c r="Q24" t="n">
         <v>2070.675836591964</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>771.7476183001612</v>
+        <v>771.7476183001611</v>
       </c>
       <c r="C25" t="n">
-        <v>656.9435070512806</v>
+        <v>656.9435070512804</v>
       </c>
       <c r="D25" t="n">
-        <v>553.7381235635935</v>
+        <v>553.7381235635934</v>
       </c>
       <c r="E25" t="n">
         <v>449.1165696213158</v>
@@ -6138,37 +6138,37 @@
         <v>340.7747049213099</v>
       </c>
       <c r="G25" t="n">
-        <v>230.0136089052278</v>
+        <v>230.0136089052277</v>
       </c>
       <c r="H25" t="n">
         <v>138.473897844217</v>
       </c>
       <c r="I25" t="n">
-        <v>84.43267712483866</v>
+        <v>84.43267712483865</v>
       </c>
       <c r="J25" t="n">
-        <v>167.5452923068058</v>
+        <v>167.5452923068057</v>
       </c>
       <c r="K25" t="n">
-        <v>400.0445415738045</v>
+        <v>400.0445415738046</v>
       </c>
       <c r="L25" t="n">
         <v>744.2585099336744</v>
       </c>
       <c r="M25" t="n">
-        <v>1119.423900729763</v>
+        <v>1119.423900729762</v>
       </c>
       <c r="N25" t="n">
-        <v>1485.433273752868</v>
+        <v>1485.433273752867</v>
       </c>
       <c r="O25" t="n">
         <v>1827.874216930486</v>
       </c>
       <c r="P25" t="n">
-        <v>2112.430504853669</v>
+        <v>2112.430504853668</v>
       </c>
       <c r="Q25" t="n">
-        <v>2249.544421174755</v>
+        <v>2249.544421174754</v>
       </c>
       <c r="R25" t="n">
         <v>2229.55521418441</v>
@@ -6183,7 +6183,7 @@
         <v>1694.035989050347</v>
       </c>
       <c r="V25" t="n">
-        <v>1476.439505179272</v>
+        <v>1476.439505179271</v>
       </c>
       <c r="W25" t="n">
         <v>1253.659101877549</v>
@@ -6192,7 +6192,7 @@
         <v>1071.604500926635</v>
       </c>
       <c r="Y25" t="n">
-        <v>903.1580635048027</v>
+        <v>903.1580635048026</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2535.406691410804</v>
+        <v>2535.406691410803</v>
       </c>
       <c r="C26" t="n">
-        <v>2125.282100724075</v>
+        <v>2125.282100724073</v>
       </c>
       <c r="D26" t="n">
-        <v>1720.818170817135</v>
+        <v>1720.818170817134</v>
       </c>
       <c r="E26" t="n">
-        <v>1306.477955334032</v>
+        <v>1306.477955334031</v>
       </c>
       <c r="F26" t="n">
-        <v>885.4475432877193</v>
+        <v>885.4475432877184</v>
       </c>
       <c r="G26" t="n">
         <v>477.1652003777099</v>
@@ -6226,31 +6226,31 @@
         <v>101.6640836113906</v>
       </c>
       <c r="J26" t="n">
-        <v>278.0025091402572</v>
+        <v>392.9450675980607</v>
       </c>
       <c r="K26" t="n">
-        <v>871.7585674955366</v>
+        <v>986.7011259533401</v>
       </c>
       <c r="L26" t="n">
-        <v>1653.322412755617</v>
+        <v>1768.264971213421</v>
       </c>
       <c r="M26" t="n">
-        <v>2506.386138875571</v>
+        <v>2621.328697333375</v>
       </c>
       <c r="N26" t="n">
-        <v>3337.554107163332</v>
+        <v>3452.496665621136</v>
       </c>
       <c r="O26" t="n">
-        <v>4054.825830573135</v>
+        <v>4169.768389030939</v>
       </c>
       <c r="P26" t="n">
         <v>4646.833304728882</v>
       </c>
       <c r="Q26" t="n">
-        <v>5015.192626993057</v>
+        <v>5015.192626993056</v>
       </c>
       <c r="R26" t="n">
-        <v>5083.204180569529</v>
+        <v>5083.204180569528</v>
       </c>
       <c r="S26" t="n">
         <v>4958.084990393895</v>
@@ -6259,19 +6259,19 @@
         <v>4737.830613931319</v>
       </c>
       <c r="U26" t="n">
-        <v>4480.805797486602</v>
+        <v>4480.805797486601</v>
       </c>
       <c r="V26" t="n">
-        <v>4130.968242823083</v>
+        <v>4130.968242823081</v>
       </c>
       <c r="W26" t="n">
-        <v>3747.207941958251</v>
+        <v>3747.207941958249</v>
       </c>
       <c r="X26" t="n">
-        <v>3346.564544127204</v>
+        <v>3346.564544127202</v>
       </c>
       <c r="Y26" t="n">
-        <v>2945.627871075294</v>
+        <v>2945.627871075292</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>101.6640836113906</v>
       </c>
       <c r="J27" t="n">
-        <v>101.6640836113906</v>
+        <v>316.5707743005883</v>
       </c>
       <c r="K27" t="n">
-        <v>101.6640836113906</v>
+        <v>810.1389104331504</v>
       </c>
       <c r="L27" t="n">
-        <v>101.6640836113906</v>
+        <v>810.1389104331504</v>
       </c>
       <c r="M27" t="n">
-        <v>1003.893786733961</v>
+        <v>812.4028919601209</v>
       </c>
       <c r="N27" t="n">
-        <v>1012.053190306141</v>
+        <v>820.5622955323006</v>
       </c>
       <c r="O27" t="n">
-        <v>1771.649488206231</v>
+        <v>1101.850585085247</v>
       </c>
       <c r="P27" t="n">
-        <v>2087.907243078515</v>
+        <v>1708.211846714687</v>
       </c>
       <c r="Q27" t="n">
         <v>2087.907243078515</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>433.6682711813546</v>
+        <v>850.8678067891301</v>
       </c>
       <c r="C28" t="n">
-        <v>262.5748987430711</v>
+        <v>850.8678067891301</v>
       </c>
       <c r="D28" t="n">
-        <v>262.5748987430711</v>
+        <v>691.3731621120401</v>
       </c>
       <c r="E28" t="n">
-        <v>101.6640836113906</v>
+        <v>530.4623469803596</v>
       </c>
       <c r="F28" t="n">
-        <v>101.6640836113906</v>
+        <v>526.8738949760703</v>
       </c>
       <c r="G28" t="n">
-        <v>101.6640836113906</v>
+        <v>359.8235377705854</v>
       </c>
       <c r="H28" t="n">
-        <v>101.6640836113906</v>
+        <v>211.9945655201718</v>
       </c>
       <c r="I28" t="n">
         <v>101.6640836113906</v>
@@ -6408,28 +6408,28 @@
         <v>1825.422988527437</v>
       </c>
       <c r="R28" t="n">
-        <v>1749.144520347689</v>
+        <v>1825.422988527437</v>
       </c>
       <c r="S28" t="n">
-        <v>1566.238797016859</v>
+        <v>1642.517265196607</v>
       </c>
       <c r="T28" t="n">
-        <v>1327.544748160986</v>
+        <v>1403.823216340734</v>
       </c>
       <c r="U28" t="n">
-        <v>1044.757511645417</v>
+        <v>1403.823216340734</v>
       </c>
       <c r="V28" t="n">
-        <v>770.8717665849392</v>
+        <v>1129.937471280256</v>
       </c>
       <c r="W28" t="n">
-        <v>770.8717665849392</v>
+        <v>850.8678067891301</v>
       </c>
       <c r="X28" t="n">
-        <v>532.5279044446227</v>
+        <v>850.8678067891301</v>
       </c>
       <c r="Y28" t="n">
-        <v>433.6682711813546</v>
+        <v>850.8678067891301</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2535.406691410804</v>
+        <v>2535.406691410803</v>
       </c>
       <c r="C29" t="n">
-        <v>2125.282100724075</v>
+        <v>2125.282100724073</v>
       </c>
       <c r="D29" t="n">
-        <v>1720.818170817135</v>
+        <v>1720.818170817134</v>
       </c>
       <c r="E29" t="n">
-        <v>1306.477955334032</v>
+        <v>1306.47795533403</v>
       </c>
       <c r="F29" t="n">
-        <v>885.4475432877202</v>
+        <v>885.447543287718</v>
       </c>
       <c r="G29" t="n">
-        <v>477.1652003777108</v>
+        <v>477.1652003777094</v>
       </c>
       <c r="H29" t="n">
-        <v>170.8236982908356</v>
+        <v>170.8236982908351</v>
       </c>
       <c r="I29" t="n">
-        <v>101.6640836113906</v>
+        <v>101.6640836113905</v>
       </c>
       <c r="J29" t="n">
-        <v>392.9450675980608</v>
+        <v>278.0025091402554</v>
       </c>
       <c r="K29" t="n">
-        <v>871.7585674955366</v>
+        <v>871.7585674955347</v>
       </c>
       <c r="L29" t="n">
-        <v>1653.322412755617</v>
+        <v>1653.322412755615</v>
       </c>
       <c r="M29" t="n">
-        <v>2506.386138875571</v>
+        <v>2506.386138875569</v>
       </c>
       <c r="N29" t="n">
-        <v>3337.554107163332</v>
+        <v>3337.554107163331</v>
       </c>
       <c r="O29" t="n">
-        <v>4054.825830573135</v>
+        <v>4054.825830573133</v>
       </c>
       <c r="P29" t="n">
-        <v>4646.833304728882</v>
+        <v>4646.833304728881</v>
       </c>
       <c r="Q29" t="n">
-        <v>5015.192626993057</v>
+        <v>5015.192626993055</v>
       </c>
       <c r="R29" t="n">
-        <v>5083.204180569529</v>
+        <v>5083.204180569527</v>
       </c>
       <c r="S29" t="n">
-        <v>4958.084990393896</v>
+        <v>4958.084990393894</v>
       </c>
       <c r="T29" t="n">
-        <v>4737.83061393132</v>
+        <v>4737.830613931318</v>
       </c>
       <c r="U29" t="n">
-        <v>4480.805797486602</v>
+        <v>4480.805797486601</v>
       </c>
       <c r="V29" t="n">
-        <v>4130.968242823083</v>
+        <v>4130.968242823081</v>
       </c>
       <c r="W29" t="n">
-        <v>3747.207941958251</v>
+        <v>3747.207941958249</v>
       </c>
       <c r="X29" t="n">
-        <v>3346.564544127204</v>
+        <v>3346.564544127202</v>
       </c>
       <c r="Y29" t="n">
-        <v>2945.627871075294</v>
+        <v>2945.627871075292</v>
       </c>
     </row>
     <row r="30">
@@ -6530,7 +6530,7 @@
         <v>398.3519697763666</v>
       </c>
       <c r="F30" t="n">
-        <v>289.3920899588712</v>
+        <v>289.3920899588711</v>
       </c>
       <c r="G30" t="n">
         <v>182.6405768486522</v>
@@ -6539,22 +6539,22 @@
         <v>114.1977334682455</v>
       </c>
       <c r="I30" t="n">
-        <v>101.6640836113906</v>
+        <v>101.6640836113905</v>
       </c>
       <c r="J30" t="n">
-        <v>101.6640836113906</v>
+        <v>316.5707743005883</v>
       </c>
       <c r="K30" t="n">
-        <v>165.107648414666</v>
+        <v>810.1389104331504</v>
       </c>
       <c r="L30" t="n">
-        <v>165.107648414666</v>
+        <v>810.1389104331504</v>
       </c>
       <c r="M30" t="n">
-        <v>167.3716299416365</v>
+        <v>812.4028919601209</v>
       </c>
       <c r="N30" t="n">
-        <v>1101.850585085247</v>
+        <v>820.5622955323006</v>
       </c>
       <c r="O30" t="n">
         <v>1101.850585085247</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>101.6640836113906</v>
+        <v>101.6640836113905</v>
       </c>
       <c r="C31" t="n">
-        <v>101.6640836113906</v>
+        <v>101.6640836113905</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6640836113906</v>
+        <v>101.6640836113905</v>
       </c>
       <c r="E31" t="n">
-        <v>101.6640836113906</v>
+        <v>101.6640836113905</v>
       </c>
       <c r="F31" t="n">
-        <v>101.6640836113906</v>
+        <v>101.6640836113905</v>
       </c>
       <c r="G31" t="n">
-        <v>101.6640836113906</v>
+        <v>101.6640836113905</v>
       </c>
       <c r="H31" t="n">
-        <v>101.6640836113906</v>
+        <v>101.6640836113905</v>
       </c>
       <c r="I31" t="n">
-        <v>101.6640836113906</v>
+        <v>101.6640836113905</v>
       </c>
       <c r="J31" t="n">
         <v>129.6075939016239</v>
@@ -6645,28 +6645,28 @@
         <v>1825.422988527437</v>
       </c>
       <c r="R31" t="n">
-        <v>1749.144520347689</v>
+        <v>1825.422988527437</v>
       </c>
       <c r="S31" t="n">
-        <v>1566.238797016859</v>
+        <v>1825.422988527437</v>
       </c>
       <c r="T31" t="n">
-        <v>1327.544748160986</v>
+        <v>1586.728939671563</v>
       </c>
       <c r="U31" t="n">
-        <v>1044.757511645417</v>
+        <v>1303.941703155995</v>
       </c>
       <c r="V31" t="n">
-        <v>770.8717665849392</v>
+        <v>1030.055958095517</v>
       </c>
       <c r="W31" t="n">
-        <v>491.8021020938136</v>
+        <v>750.9862936043912</v>
       </c>
       <c r="X31" t="n">
-        <v>326.3997822226259</v>
+        <v>512.6424314640747</v>
       </c>
       <c r="Y31" t="n">
-        <v>101.6640836113906</v>
+        <v>289.3637900054349</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2124.150456598432</v>
+        <v>2124.150456598431</v>
       </c>
       <c r="C32" t="n">
         <v>1770.315127101105</v>
       </c>
       <c r="D32" t="n">
-        <v>1422.140458383569</v>
+        <v>1422.140458383568</v>
       </c>
       <c r="E32" t="n">
         <v>1064.089504089868</v>
       </c>
       <c r="F32" t="n">
-        <v>699.3483532329583</v>
+        <v>699.3483532329579</v>
       </c>
       <c r="G32" t="n">
-        <v>347.3552715123528</v>
+        <v>347.3552715123522</v>
       </c>
       <c r="H32" t="n">
-        <v>97.30303061488038</v>
+        <v>97.30303061488037</v>
       </c>
       <c r="I32" t="n">
-        <v>84.43267712483866</v>
+        <v>84.43267712483869</v>
       </c>
       <c r="J32" t="n">
-        <v>84.43267712483866</v>
+        <v>375.7136611115089</v>
       </c>
       <c r="K32" t="n">
-        <v>84.43267712483866</v>
+        <v>969.4697194667883</v>
       </c>
       <c r="L32" t="n">
-        <v>865.9965223849191</v>
+        <v>1751.033564726869</v>
       </c>
       <c r="M32" t="n">
-        <v>1719.060248504873</v>
+        <v>2604.097290846823</v>
       </c>
       <c r="N32" t="n">
-        <v>2550.228216792635</v>
+        <v>3435.265259134584</v>
       </c>
       <c r="O32" t="n">
-        <v>3267.499940202437</v>
+        <v>4152.536982544387</v>
       </c>
       <c r="P32" t="n">
-        <v>3859.507414358184</v>
+        <v>4152.536982544387</v>
       </c>
       <c r="Q32" t="n">
-        <v>4153.622302665462</v>
+        <v>4221.633856241934</v>
       </c>
       <c r="R32" t="n">
-        <v>4221.633856241933</v>
+        <v>4221.633856241934</v>
       </c>
       <c r="S32" t="n">
         <v>4152.803927255704</v>
       </c>
       <c r="T32" t="n">
-        <v>3988.838811982531</v>
+        <v>3988.83881198253</v>
       </c>
       <c r="U32" t="n">
-        <v>3788.103256727216</v>
+        <v>3788.103256727215</v>
       </c>
       <c r="V32" t="n">
-        <v>3494.554963253099</v>
+        <v>3494.554963253098</v>
       </c>
       <c r="W32" t="n">
-        <v>3167.083923577671</v>
+        <v>3167.08392357767</v>
       </c>
       <c r="X32" t="n">
-        <v>2822.729786936026</v>
+        <v>2822.729786936025</v>
       </c>
       <c r="Y32" t="n">
-        <v>2478.082375073519</v>
+        <v>2478.082375073518</v>
       </c>
     </row>
     <row r="33">
@@ -6758,43 +6758,43 @@
         <v>752.5056083291486</v>
       </c>
       <c r="C33" t="n">
-        <v>618.5105370780942</v>
+        <v>618.5105370780943</v>
       </c>
       <c r="D33" t="n">
-        <v>501.6133792974866</v>
+        <v>501.6133792974867</v>
       </c>
       <c r="E33" t="n">
-        <v>381.1205632898146</v>
+        <v>381.1205632898148</v>
       </c>
       <c r="F33" t="n">
-        <v>272.1606834723192</v>
+        <v>272.1606834723193</v>
       </c>
       <c r="G33" t="n">
         <v>165.4091703621003</v>
       </c>
       <c r="H33" t="n">
-        <v>96.9663269816936</v>
+        <v>96.96632698169363</v>
       </c>
       <c r="I33" t="n">
-        <v>84.43267712483866</v>
+        <v>84.43267712483869</v>
       </c>
       <c r="J33" t="n">
-        <v>84.43267712483866</v>
+        <v>299.3393678140364</v>
       </c>
       <c r="K33" t="n">
-        <v>578.0008132574009</v>
+        <v>792.9075039465986</v>
       </c>
       <c r="L33" t="n">
-        <v>780.5913335333855</v>
+        <v>792.9075039465986</v>
       </c>
       <c r="M33" t="n">
-        <v>1682.821036655956</v>
+        <v>795.1714854735691</v>
       </c>
       <c r="N33" t="n">
-        <v>1690.980440228136</v>
+        <v>803.3308890457488</v>
       </c>
       <c r="O33" t="n">
-        <v>1690.980440228136</v>
+        <v>1084.619178598695</v>
       </c>
       <c r="P33" t="n">
         <v>1690.980440228136</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>771.7476183001611</v>
+        <v>771.7476183001612</v>
       </c>
       <c r="C34" t="n">
-        <v>656.9435070512804</v>
+        <v>656.9435070512806</v>
       </c>
       <c r="D34" t="n">
-        <v>553.7381235635933</v>
+        <v>553.7381235635935</v>
       </c>
       <c r="E34" t="n">
-        <v>449.1165696213155</v>
+        <v>449.1165696213158</v>
       </c>
       <c r="F34" t="n">
-        <v>340.7747049213096</v>
+        <v>340.7747049213099</v>
       </c>
       <c r="G34" t="n">
-        <v>230.0136089052275</v>
+        <v>230.0136089052278</v>
       </c>
       <c r="H34" t="n">
         <v>138.473897844217</v>
       </c>
       <c r="I34" t="n">
-        <v>84.43267712483866</v>
+        <v>84.43267712483869</v>
       </c>
       <c r="J34" t="n">
-        <v>167.5452923068057</v>
+        <v>167.5452923068058</v>
       </c>
       <c r="K34" t="n">
         <v>400.0445415738046</v>
@@ -6931,49 +6931,49 @@
         <v>347.3552715123523</v>
       </c>
       <c r="H35" t="n">
-        <v>97.30303061488036</v>
+        <v>97.30303061488037</v>
       </c>
       <c r="I35" t="n">
-        <v>84.43267712483866</v>
+        <v>84.43267712483869</v>
       </c>
       <c r="J35" t="n">
-        <v>375.7136611115089</v>
+        <v>84.43267712483869</v>
       </c>
       <c r="K35" t="n">
-        <v>969.4697194667883</v>
+        <v>678.1887354801181</v>
       </c>
       <c r="L35" t="n">
-        <v>1751.033564726869</v>
+        <v>1459.752580740198</v>
       </c>
       <c r="M35" t="n">
-        <v>2475.983782835737</v>
+        <v>2312.816306860153</v>
       </c>
       <c r="N35" t="n">
-        <v>2475.983782835737</v>
+        <v>3143.984275147914</v>
       </c>
       <c r="O35" t="n">
-        <v>3193.255506245539</v>
+        <v>3861.255998557716</v>
       </c>
       <c r="P35" t="n">
-        <v>3785.262980401287</v>
+        <v>3861.255998557716</v>
       </c>
       <c r="Q35" t="n">
-        <v>4153.622302665462</v>
+        <v>4221.633856241934</v>
       </c>
       <c r="R35" t="n">
-        <v>4221.633856241933</v>
+        <v>4221.633856241934</v>
       </c>
       <c r="S35" t="n">
-        <v>4152.803927255703</v>
+        <v>4152.803927255704</v>
       </c>
       <c r="T35" t="n">
-        <v>3988.83881198253</v>
+        <v>3988.838811982529</v>
       </c>
       <c r="U35" t="n">
         <v>3788.103256727215</v>
       </c>
       <c r="V35" t="n">
-        <v>3494.554963253098</v>
+        <v>3494.554963253099</v>
       </c>
       <c r="W35" t="n">
         <v>3167.08392357767</v>
@@ -6995,40 +6995,40 @@
         <v>752.5056083291486</v>
       </c>
       <c r="C36" t="n">
-        <v>618.5105370780942</v>
+        <v>618.5105370780943</v>
       </c>
       <c r="D36" t="n">
-        <v>501.6133792974866</v>
+        <v>501.6133792974867</v>
       </c>
       <c r="E36" t="n">
-        <v>381.1205632898146</v>
+        <v>381.1205632898148</v>
       </c>
       <c r="F36" t="n">
-        <v>272.1606834723192</v>
+        <v>272.1606834723193</v>
       </c>
       <c r="G36" t="n">
         <v>165.4091703621003</v>
       </c>
       <c r="H36" t="n">
-        <v>96.9663269816936</v>
+        <v>96.96632698169363</v>
       </c>
       <c r="I36" t="n">
-        <v>84.43267712483866</v>
+        <v>84.43267712483869</v>
       </c>
       <c r="J36" t="n">
-        <v>84.43267712483866</v>
+        <v>299.3393678140364</v>
       </c>
       <c r="K36" t="n">
-        <v>84.43267712483866</v>
+        <v>792.9075039465986</v>
       </c>
       <c r="L36" t="n">
-        <v>314.5994955994541</v>
+        <v>792.9075039465986</v>
       </c>
       <c r="M36" t="n">
-        <v>316.8634771264245</v>
+        <v>795.1714854735691</v>
       </c>
       <c r="N36" t="n">
-        <v>325.0228806986042</v>
+        <v>803.3308890457488</v>
       </c>
       <c r="O36" t="n">
         <v>1084.619178598695</v>
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>771.7476183001613</v>
+        <v>771.7476183001612</v>
       </c>
       <c r="C37" t="n">
-        <v>656.9435070512807</v>
+        <v>656.9435070512806</v>
       </c>
       <c r="D37" t="n">
         <v>553.7381235635935</v>
@@ -7092,7 +7092,7 @@
         <v>138.473897844217</v>
       </c>
       <c r="I37" t="n">
-        <v>84.43267712483866</v>
+        <v>84.43267712483869</v>
       </c>
       <c r="J37" t="n">
         <v>167.5452923068058</v>
@@ -7101,7 +7101,7 @@
         <v>400.0445415738046</v>
       </c>
       <c r="L37" t="n">
-        <v>744.2585099336746</v>
+        <v>744.2585099336745</v>
       </c>
       <c r="M37" t="n">
         <v>1119.423900729763</v>
@@ -7140,7 +7140,7 @@
         <v>1071.604500926635</v>
       </c>
       <c r="Y37" t="n">
-        <v>903.1580635048028</v>
+        <v>903.1580635048027</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2124.150456598432</v>
+        <v>2124.150456598431</v>
       </c>
       <c r="C38" t="n">
         <v>1770.315127101105</v>
@@ -7162,55 +7162,55 @@
         <v>1064.089504089868</v>
       </c>
       <c r="F38" t="n">
-        <v>699.3483532329581</v>
+        <v>699.3483532329579</v>
       </c>
       <c r="G38" t="n">
-        <v>347.3552715123524</v>
+        <v>347.3552715123522</v>
       </c>
       <c r="H38" t="n">
-        <v>97.30303061488033</v>
+        <v>97.30303061488037</v>
       </c>
       <c r="I38" t="n">
-        <v>84.43267712483866</v>
+        <v>84.43267712483869</v>
       </c>
       <c r="J38" t="n">
-        <v>247.6001531004226</v>
+        <v>375.7136611115089</v>
       </c>
       <c r="K38" t="n">
-        <v>841.356211455702</v>
+        <v>969.4697194667883</v>
       </c>
       <c r="L38" t="n">
-        <v>1622.920056715782</v>
+        <v>1751.033564726869</v>
       </c>
       <c r="M38" t="n">
-        <v>2475.983782835737</v>
+        <v>2604.097290846823</v>
       </c>
       <c r="N38" t="n">
-        <v>2475.983782835737</v>
+        <v>2604.097290846823</v>
       </c>
       <c r="O38" t="n">
-        <v>3193.255506245539</v>
+        <v>3261.267059822012</v>
       </c>
       <c r="P38" t="n">
-        <v>3785.262980401287</v>
+        <v>3853.274533977759</v>
       </c>
       <c r="Q38" t="n">
-        <v>4153.622302665462</v>
+        <v>4221.633856241934</v>
       </c>
       <c r="R38" t="n">
-        <v>4221.633856241933</v>
+        <v>4221.633856241934</v>
       </c>
       <c r="S38" t="n">
-        <v>4152.803927255703</v>
+        <v>4152.803927255704</v>
       </c>
       <c r="T38" t="n">
-        <v>3988.838811982529</v>
+        <v>3988.83881198253</v>
       </c>
       <c r="U38" t="n">
         <v>3788.103256727215</v>
       </c>
       <c r="V38" t="n">
-        <v>3494.554963253099</v>
+        <v>3494.554963253098</v>
       </c>
       <c r="W38" t="n">
         <v>3167.08392357767</v>
@@ -7219,7 +7219,7 @@
         <v>2822.729786936025</v>
       </c>
       <c r="Y38" t="n">
-        <v>2478.082375073519</v>
+        <v>2478.082375073518</v>
       </c>
     </row>
     <row r="39">
@@ -7232,43 +7232,43 @@
         <v>752.5056083291486</v>
       </c>
       <c r="C39" t="n">
-        <v>618.5105370780942</v>
+        <v>618.5105370780943</v>
       </c>
       <c r="D39" t="n">
-        <v>501.6133792974866</v>
+        <v>501.6133792974867</v>
       </c>
       <c r="E39" t="n">
-        <v>381.1205632898146</v>
+        <v>381.1205632898148</v>
       </c>
       <c r="F39" t="n">
-        <v>272.1606834723192</v>
+        <v>272.1606834723193</v>
       </c>
       <c r="G39" t="n">
         <v>165.4091703621003</v>
       </c>
       <c r="H39" t="n">
-        <v>96.9663269816936</v>
+        <v>96.96632698169363</v>
       </c>
       <c r="I39" t="n">
-        <v>84.43267712483866</v>
+        <v>84.43267712483869</v>
       </c>
       <c r="J39" t="n">
-        <v>299.3393678140363</v>
+        <v>299.3393678140364</v>
       </c>
       <c r="K39" t="n">
-        <v>299.3393678140363</v>
+        <v>792.9075039465986</v>
       </c>
       <c r="L39" t="n">
-        <v>299.3393678140363</v>
+        <v>1504.771183452841</v>
       </c>
       <c r="M39" t="n">
-        <v>1076.459775026515</v>
+        <v>1682.821036655956</v>
       </c>
       <c r="N39" t="n">
-        <v>1084.619178598695</v>
+        <v>1690.980440228136</v>
       </c>
       <c r="O39" t="n">
-        <v>1084.619178598695</v>
+        <v>1690.980440228136</v>
       </c>
       <c r="P39" t="n">
         <v>1690.980440228136</v>
@@ -7323,13 +7323,13 @@
         <v>340.7747049213099</v>
       </c>
       <c r="G40" t="n">
-        <v>230.0136089052279</v>
+        <v>230.0136089052278</v>
       </c>
       <c r="H40" t="n">
         <v>138.473897844217</v>
       </c>
       <c r="I40" t="n">
-        <v>84.43267712483866</v>
+        <v>84.43267712483869</v>
       </c>
       <c r="J40" t="n">
         <v>167.5452923068058</v>
@@ -7405,43 +7405,43 @@
         <v>347.3552715123523</v>
       </c>
       <c r="H41" t="n">
-        <v>97.30303061488036</v>
+        <v>97.30303061488038</v>
       </c>
       <c r="I41" t="n">
-        <v>84.43267712483866</v>
+        <v>84.43267712483869</v>
       </c>
       <c r="J41" t="n">
-        <v>375.7136611115089</v>
+        <v>375.7136611115088</v>
       </c>
       <c r="K41" t="n">
-        <v>375.7136611115089</v>
+        <v>969.4697194667881</v>
       </c>
       <c r="L41" t="n">
-        <v>1157.277506371589</v>
+        <v>1751.033564726868</v>
       </c>
       <c r="M41" t="n">
-        <v>2010.341232491544</v>
+        <v>2013.175136812152</v>
       </c>
       <c r="N41" t="n">
-        <v>2841.509200779305</v>
+        <v>2844.343105099913</v>
       </c>
       <c r="O41" t="n">
-        <v>3558.780924189107</v>
+        <v>3561.614828509716</v>
       </c>
       <c r="P41" t="n">
-        <v>3785.262980401287</v>
+        <v>4153.622302665462</v>
       </c>
       <c r="Q41" t="n">
         <v>4153.622302665462</v>
       </c>
       <c r="R41" t="n">
-        <v>4221.633856241933</v>
+        <v>4221.633856241934</v>
       </c>
       <c r="S41" t="n">
-        <v>4152.803927255703</v>
+        <v>4152.803927255704</v>
       </c>
       <c r="T41" t="n">
-        <v>3988.83881198253</v>
+        <v>3988.838811982531</v>
       </c>
       <c r="U41" t="n">
         <v>3788.103256727215</v>
@@ -7450,7 +7450,7 @@
         <v>3494.554963253099</v>
       </c>
       <c r="W41" t="n">
-        <v>3167.083923577671</v>
+        <v>3167.08392357767</v>
       </c>
       <c r="X41" t="n">
         <v>2822.729786936025</v>
@@ -7469,46 +7469,46 @@
         <v>752.5056083291486</v>
       </c>
       <c r="C42" t="n">
-        <v>618.5105370780942</v>
+        <v>618.5105370780943</v>
       </c>
       <c r="D42" t="n">
-        <v>501.6133792974866</v>
+        <v>501.6133792974867</v>
       </c>
       <c r="E42" t="n">
-        <v>381.1205632898146</v>
+        <v>381.1205632898148</v>
       </c>
       <c r="F42" t="n">
-        <v>272.1606834723192</v>
+        <v>272.1606834723193</v>
       </c>
       <c r="G42" t="n">
         <v>165.4091703621003</v>
       </c>
       <c r="H42" t="n">
-        <v>96.9663269816936</v>
+        <v>96.96632698169363</v>
       </c>
       <c r="I42" t="n">
-        <v>84.43267712483866</v>
+        <v>84.43267712483869</v>
       </c>
       <c r="J42" t="n">
-        <v>84.43267712483866</v>
+        <v>299.3393678140363</v>
       </c>
       <c r="K42" t="n">
-        <v>84.43267712483866</v>
+        <v>792.9075039465985</v>
       </c>
       <c r="L42" t="n">
-        <v>84.43267712483866</v>
+        <v>792.9075039465985</v>
       </c>
       <c r="M42" t="n">
-        <v>86.6966586518091</v>
+        <v>795.1714854735689</v>
       </c>
       <c r="N42" t="n">
-        <v>1021.175613795419</v>
+        <v>803.3308890457486</v>
       </c>
       <c r="O42" t="n">
-        <v>1780.77191169551</v>
+        <v>1562.927186945839</v>
       </c>
       <c r="P42" t="n">
-        <v>1780.77191169551</v>
+        <v>1690.980440228136</v>
       </c>
       <c r="Q42" t="n">
         <v>2070.675836591964</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2743.837053367339</v>
+        <v>771.7476183001612</v>
       </c>
       <c r="C43" t="n">
-        <v>2629.032942118458</v>
+        <v>656.9435070512806</v>
       </c>
       <c r="D43" t="n">
-        <v>2525.827558630771</v>
+        <v>553.7381235635935</v>
       </c>
       <c r="E43" t="n">
-        <v>2421.206004688494</v>
+        <v>449.1165696213158</v>
       </c>
       <c r="F43" t="n">
-        <v>2312.864139988488</v>
+        <v>340.7747049213099</v>
       </c>
       <c r="G43" t="n">
-        <v>2202.103043972406</v>
+        <v>230.0136089052278</v>
       </c>
       <c r="H43" t="n">
-        <v>2110.563332911395</v>
+        <v>138.473897844217</v>
       </c>
       <c r="I43" t="n">
-        <v>2056.522112192017</v>
+        <v>84.43267712483869</v>
       </c>
       <c r="J43" t="n">
-        <v>2139.634727373984</v>
+        <v>167.5452923068058</v>
       </c>
       <c r="K43" t="n">
-        <v>2372.133976640983</v>
+        <v>400.044541573805</v>
       </c>
       <c r="L43" t="n">
-        <v>2716.347945000853</v>
+        <v>744.2585099336749</v>
       </c>
       <c r="M43" t="n">
-        <v>3091.513335796941</v>
+        <v>1119.423900729763</v>
       </c>
       <c r="N43" t="n">
-        <v>3457.522708820046</v>
+        <v>1485.433273752868</v>
       </c>
       <c r="O43" t="n">
-        <v>3799.963651997664</v>
+        <v>1827.874216930486</v>
       </c>
       <c r="P43" t="n">
-        <v>4084.519939920847</v>
+        <v>2112.430504853669</v>
       </c>
       <c r="Q43" t="n">
-        <v>4221.633856241933</v>
+        <v>2249.544421174755</v>
       </c>
       <c r="R43" t="n">
-        <v>4201.644649251588</v>
+        <v>2229.55521418441</v>
       </c>
       <c r="S43" t="n">
-        <v>4075.028187110161</v>
+        <v>2102.938752042983</v>
       </c>
       <c r="T43" t="n">
-        <v>3892.62339944369</v>
+        <v>1920.533964376512</v>
       </c>
       <c r="U43" t="n">
-        <v>3666.125424117525</v>
+        <v>1694.035989050347</v>
       </c>
       <c r="V43" t="n">
-        <v>3448.52894024645</v>
+        <v>1476.439505179272</v>
       </c>
       <c r="W43" t="n">
-        <v>3225.748536944727</v>
+        <v>1253.659101877549</v>
       </c>
       <c r="X43" t="n">
-        <v>3043.693935993813</v>
+        <v>1071.604500926635</v>
       </c>
       <c r="Y43" t="n">
-        <v>2875.24749857198</v>
+        <v>903.1580635048027</v>
       </c>
     </row>
     <row r="44">
@@ -7630,7 +7630,7 @@
         <v>1770.315127101105</v>
       </c>
       <c r="D44" t="n">
-        <v>1422.140458383569</v>
+        <v>1422.140458383568</v>
       </c>
       <c r="E44" t="n">
         <v>1064.089504089868</v>
@@ -7642,43 +7642,43 @@
         <v>347.3552715123523</v>
       </c>
       <c r="H44" t="n">
-        <v>97.30303061488036</v>
+        <v>97.30303061488038</v>
       </c>
       <c r="I44" t="n">
-        <v>84.43267712483866</v>
+        <v>84.43267712483869</v>
       </c>
       <c r="J44" t="n">
-        <v>375.7136611115089</v>
+        <v>375.7136611115088</v>
       </c>
       <c r="K44" t="n">
-        <v>727.4599665777436</v>
+        <v>969.4697194667881</v>
       </c>
       <c r="L44" t="n">
-        <v>1509.023811837824</v>
+        <v>1712.827368124449</v>
       </c>
       <c r="M44" t="n">
-        <v>2362.087537957778</v>
+        <v>1712.827368124449</v>
       </c>
       <c r="N44" t="n">
-        <v>3193.255506245539</v>
+        <v>2543.99533641221</v>
       </c>
       <c r="O44" t="n">
-        <v>3193.255506245539</v>
+        <v>3261.267059822012</v>
       </c>
       <c r="P44" t="n">
-        <v>3785.262980401287</v>
+        <v>3853.274533977759</v>
       </c>
       <c r="Q44" t="n">
-        <v>4153.622302665462</v>
+        <v>4221.633856241934</v>
       </c>
       <c r="R44" t="n">
-        <v>4221.633856241933</v>
+        <v>4221.633856241934</v>
       </c>
       <c r="S44" t="n">
-        <v>4152.803927255703</v>
+        <v>4152.803927255704</v>
       </c>
       <c r="T44" t="n">
-        <v>3988.83881198253</v>
+        <v>3988.838811982529</v>
       </c>
       <c r="U44" t="n">
         <v>3788.103256727215</v>
@@ -7687,10 +7687,10 @@
         <v>3494.554963253099</v>
       </c>
       <c r="W44" t="n">
-        <v>3167.083923577671</v>
+        <v>3167.08392357767</v>
       </c>
       <c r="X44" t="n">
-        <v>2822.729786936026</v>
+        <v>2822.729786936025</v>
       </c>
       <c r="Y44" t="n">
         <v>2478.082375073519</v>
@@ -7706,49 +7706,49 @@
         <v>752.5056083291486</v>
       </c>
       <c r="C45" t="n">
-        <v>618.5105370780942</v>
+        <v>618.5105370780943</v>
       </c>
       <c r="D45" t="n">
-        <v>501.6133792974866</v>
+        <v>501.6133792974867</v>
       </c>
       <c r="E45" t="n">
-        <v>381.1205632898146</v>
+        <v>381.1205632898148</v>
       </c>
       <c r="F45" t="n">
-        <v>272.1606834723192</v>
+        <v>272.1606834723193</v>
       </c>
       <c r="G45" t="n">
         <v>165.4091703621003</v>
       </c>
       <c r="H45" t="n">
-        <v>96.9663269816936</v>
+        <v>96.96632698169363</v>
       </c>
       <c r="I45" t="n">
-        <v>84.43267712483866</v>
+        <v>84.43267712483869</v>
       </c>
       <c r="J45" t="n">
-        <v>84.43267712483866</v>
+        <v>299.3393678140363</v>
       </c>
       <c r="K45" t="n">
-        <v>84.43267712483866</v>
+        <v>792.9075039465985</v>
       </c>
       <c r="L45" t="n">
-        <v>84.43267712483866</v>
+        <v>792.9075039465985</v>
       </c>
       <c r="M45" t="n">
-        <v>86.6966586518091</v>
+        <v>795.1714854735689</v>
       </c>
       <c r="N45" t="n">
-        <v>369.1017028670299</v>
+        <v>803.3308890457486</v>
       </c>
       <c r="O45" t="n">
-        <v>1128.69800076712</v>
+        <v>1084.619178598695</v>
       </c>
       <c r="P45" t="n">
-        <v>1735.059262396561</v>
+        <v>1690.980440228136</v>
       </c>
       <c r="Q45" t="n">
-        <v>2114.754658760389</v>
+        <v>2070.675836591964</v>
       </c>
       <c r="R45" t="n">
         <v>2114.754658760389</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2743.83705336734</v>
+        <v>771.7476183001612</v>
       </c>
       <c r="C46" t="n">
-        <v>2629.032942118459</v>
+        <v>656.9435070512806</v>
       </c>
       <c r="D46" t="n">
-        <v>2525.827558630772</v>
+        <v>553.7381235635935</v>
       </c>
       <c r="E46" t="n">
-        <v>2421.206004688494</v>
+        <v>449.1165696213158</v>
       </c>
       <c r="F46" t="n">
-        <v>2312.864139988488</v>
+        <v>340.7747049213099</v>
       </c>
       <c r="G46" t="n">
-        <v>2202.103043972406</v>
+        <v>230.0136089052278</v>
       </c>
       <c r="H46" t="n">
-        <v>2110.563332911396</v>
+        <v>138.473897844217</v>
       </c>
       <c r="I46" t="n">
-        <v>2056.522112192017</v>
+        <v>84.43267712483869</v>
       </c>
       <c r="J46" t="n">
-        <v>2139.634727373984</v>
+        <v>167.5452923068058</v>
       </c>
       <c r="K46" t="n">
-        <v>2372.133976640983</v>
+        <v>400.0445415738046</v>
       </c>
       <c r="L46" t="n">
-        <v>2716.347945000853</v>
+        <v>744.2585099336744</v>
       </c>
       <c r="M46" t="n">
-        <v>3091.513335796941</v>
+        <v>1119.423900729763</v>
       </c>
       <c r="N46" t="n">
-        <v>3457.522708820046</v>
+        <v>1485.433273752868</v>
       </c>
       <c r="O46" t="n">
-        <v>3799.963651997665</v>
+        <v>1827.874216930486</v>
       </c>
       <c r="P46" t="n">
-        <v>4084.519939920847</v>
+        <v>2112.430504853668</v>
       </c>
       <c r="Q46" t="n">
-        <v>4221.633856241933</v>
+        <v>2249.544421174754</v>
       </c>
       <c r="R46" t="n">
-        <v>4201.644649251588</v>
+        <v>2229.555214184409</v>
       </c>
       <c r="S46" t="n">
-        <v>4075.028187110162</v>
+        <v>2102.938752042983</v>
       </c>
       <c r="T46" t="n">
-        <v>3892.623399443691</v>
+        <v>1920.533964376512</v>
       </c>
       <c r="U46" t="n">
-        <v>3666.125424117526</v>
+        <v>1694.035989050346</v>
       </c>
       <c r="V46" t="n">
-        <v>3448.52894024645</v>
+        <v>1476.439505179271</v>
       </c>
       <c r="W46" t="n">
-        <v>3225.748536944728</v>
+        <v>1253.659101877548</v>
       </c>
       <c r="X46" t="n">
-        <v>3043.693935993814</v>
+        <v>1071.604500926635</v>
       </c>
       <c r="Y46" t="n">
-        <v>2875.247498571981</v>
+        <v>903.1580635048027</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>90.14369925915724</v>
       </c>
       <c r="K2" t="n">
         <v>89.13638967321712</v>
@@ -7987,13 +7987,13 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>109.4307320626584</v>
       </c>
       <c r="N2" t="n">
-        <v>109.7323986824686</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>110.0098835516324</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
         <v>93.64936328088416</v>
@@ -8002,7 +8002,7 @@
         <v>106.8539123250013</v>
       </c>
       <c r="R2" t="n">
-        <v>103.4526504203365</v>
+        <v>104.1322507405728</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>68.1893467258493</v>
       </c>
       <c r="K3" t="n">
         <v>72.6458907104647</v>
@@ -8066,22 +8066,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>74.38439166426673</v>
+        <v>73.7047913440304</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>74.57158692584929</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>72.83312611045169</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>75.82030703125471</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8142,22 +8142,22 @@
         <v>52.25036955906683</v>
       </c>
       <c r="L4" t="n">
-        <v>71.44840181975081</v>
+        <v>54.62829389390151</v>
       </c>
       <c r="M4" t="n">
-        <v>73.08505042462934</v>
+        <v>56.26494249878004</v>
       </c>
       <c r="N4" t="n">
-        <v>51.71264550841944</v>
+        <v>67.85315311403241</v>
       </c>
       <c r="O4" t="n">
-        <v>56.07489807299633</v>
+        <v>72.89500599884562</v>
       </c>
       <c r="P4" t="n">
         <v>72.59994956575409</v>
       </c>
       <c r="Q4" t="n">
-        <v>77.50003326553853</v>
+        <v>78.17963358577487</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>90.14369925915724</v>
       </c>
       <c r="K5" t="n">
-        <v>105.2768972788301</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>112.3055059886941</v>
       </c>
       <c r="M5" t="n">
-        <v>110.1103323828948</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>109.7323986824686</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>110.0098835516324</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>106.8539123250013</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>103.4526504203365</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>68.1893467258493</v>
       </c>
       <c r="K6" t="n">
         <v>55.82578278461539</v>
@@ -8306,7 +8306,7 @@
         <v>74.38439166426673</v>
       </c>
       <c r="N6" t="n">
-        <v>69.33390099936297</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
         <v>57.751479</v>
@@ -8315,7 +8315,7 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>73.51272643068802</v>
+        <v>72.83312611045169</v>
       </c>
       <c r="R6" t="n">
         <v>75.82030703125471</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>65.65794306195595</v>
+        <v>51.43314568295542</v>
       </c>
       <c r="K7" t="n">
         <v>69.07047748491613</v>
@@ -8385,16 +8385,16 @@
         <v>56.26494249878004</v>
       </c>
       <c r="N7" t="n">
-        <v>68.53275343426874</v>
+        <v>67.85315311403241</v>
       </c>
       <c r="O7" t="n">
         <v>72.89500599884562</v>
       </c>
       <c r="P7" t="n">
-        <v>55.77984163990478</v>
+        <v>72.59994956575409</v>
       </c>
       <c r="Q7" t="n">
-        <v>63.27523588653802</v>
+        <v>61.35952565992557</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>305.5362803410555</v>
       </c>
       <c r="K8" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>277.3494474242542</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>325.502913464793</v>
       </c>
       <c r="N8" t="n">
-        <v>325.1249797643673</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>325.4024646335311</v>
+        <v>325.4024646335307</v>
       </c>
       <c r="P8" t="n">
-        <v>316.4797214196323</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>322.2464934069001</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>278.6561409233635</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>288.327212818597</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
@@ -8546,16 +8546,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>289.964168007748</v>
+        <v>289.9641680077476</v>
       </c>
       <c r="P9" t="n">
-        <v>286.4723240105517</v>
+        <v>286.4723240105513</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>288.9053075125863</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>87.07009505967514</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,25 +8610,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>51.96011238256325</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K10" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L10" t="n">
-        <v>286.8409829016495</v>
+        <v>286.8409829016491</v>
       </c>
       <c r="M10" t="n">
-        <v>288.477631506528</v>
+        <v>288.4776315065276</v>
       </c>
       <c r="N10" t="n">
-        <v>283.9253345161674</v>
+        <v>62.47453388767056</v>
       </c>
       <c r="O10" t="n">
         <v>56.07489807299633</v>
       </c>
       <c r="P10" t="n">
-        <v>55.77984163990478</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q10" t="n">
         <v>127.5494547533709</v>
@@ -8695,7 +8695,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
-        <v>512.9893892200254</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
         <v>877.4504173780091</v>
@@ -8707,13 +8707,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>30.16373071866641</v>
+        <v>31.26001366924702</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681339</v>
+        <v>42.35873826896756</v>
       </c>
       <c r="R11" t="n">
-        <v>59.57991262592883</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,28 +8771,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>17.68246978737954</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>261.9838095348717</v>
+        <v>4.826132308875479</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1.550259450306832</v>
+        <v>330.2039076537126</v>
       </c>
       <c r="P12" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>26.5401622625715</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>44.33423667530869</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>35.85337666773633</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -8935,19 +8935,19 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>877.4504173780091</v>
+        <v>15.76988594371183</v>
       </c>
       <c r="N14" t="n">
         <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
-        <v>509.3526442576755</v>
+        <v>704.7298360446546</v>
       </c>
       <c r="P14" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>42.35873826896756</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>59.57991262592883</v>
@@ -9008,13 +9008,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>17.68246978737954</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>4.826132308875479</v>
+        <v>288.9557177158916</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>283.6978394885674</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9178,16 +9178,16 @@
         <v>853.701196452193</v>
       </c>
       <c r="O17" t="n">
-        <v>146.4308891433906</v>
+        <v>18.80506149174489</v>
       </c>
       <c r="P17" t="n">
-        <v>628.1510783507341</v>
+        <v>452.3953214693466</v>
       </c>
       <c r="Q17" t="n">
-        <v>42.35873826896756</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>59.57991262592883</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>29.05223564185411</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>17.68246978737954</v>
       </c>
       <c r="L18" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>561.0921899393666</v>
+        <v>708.7612680815328</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>1.550259450306832</v>
       </c>
       <c r="P18" t="n">
-        <v>9.153201527136126</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
         <v>26.5401622625715</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>44.33423667530869</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,16 +9403,16 @@
         <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>32.97825104065164</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L20" t="n">
-        <v>446.0570969200872</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M20" t="n">
-        <v>877.4504173780091</v>
+        <v>15.7698859437119</v>
       </c>
       <c r="N20" t="n">
-        <v>853.701196452193</v>
+        <v>815.1090786719693</v>
       </c>
       <c r="O20" t="n">
         <v>743.321953824879</v>
@@ -9424,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>59.57991262592886</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,25 +9479,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>29.05223564185411</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>17.68246978737954</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>4.826132308875479</v>
+        <v>288.955717715892</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>704.7408214791423</v>
+        <v>1.550259450306889</v>
       </c>
       <c r="P21" t="n">
-        <v>9.153201527136126</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>35.85337666773633</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
         <v>632.7318453389136</v>
@@ -9646,19 +9646,19 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M23" t="n">
-        <v>877.4504173780091</v>
+        <v>280.5593526965215</v>
       </c>
       <c r="N23" t="n">
         <v>853.701196452193</v>
       </c>
       <c r="O23" t="n">
-        <v>68.573981792377</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P23" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q23" t="n">
-        <v>414.4388617681339</v>
+        <v>42.35873826896761</v>
       </c>
       <c r="R23" t="n">
         <v>128.2784515920617</v>
@@ -9716,13 +9716,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>29.05223564185411</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>17.68246978737954</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>723.8803540323523</v>
+        <v>4.826132308875529</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>285.6798448573233</v>
       </c>
       <c r="P24" t="n">
-        <v>518.6075418924312</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>26.5401622625715</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>88.85829947169823</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>213.9729984140662</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
         <v>632.7318453389136</v>
@@ -9892,7 +9892,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P26" t="n">
-        <v>628.1510783507341</v>
+        <v>512.0474839489113</v>
       </c>
       <c r="Q26" t="n">
         <v>414.4388617681339</v>
@@ -9953,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>29.05223564185411</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>17.68246978737954</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
         <v>4.826132308875479</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>285.679844857323</v>
       </c>
       <c r="P27" t="n">
-        <v>328.6054791759081</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>26.5401622625715</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>330.076592815888</v>
+        <v>213.9729984140644</v>
       </c>
       <c r="K29" t="n">
-        <v>516.6282509370918</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L29" t="n">
         <v>815.2746908024792</v>
@@ -10190,10 +10190,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>29.05223564185411</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>81.76687867957696</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
         <v>4.826132308875479</v>
@@ -10202,10 +10202,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1.550259450306832</v>
+        <v>285.679844857323</v>
       </c>
       <c r="P30" t="n">
         <v>621.6393243851574</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>35.85337666773633</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>32.97825104065164</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L32" t="n">
         <v>815.2746908024792</v>
@@ -10366,13 +10366,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P32" t="n">
-        <v>628.1510783507341</v>
+        <v>30.16373071866641</v>
       </c>
       <c r="Q32" t="n">
-        <v>339.4444840338942</v>
+        <v>112.1535601856821</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920617</v>
+        <v>59.57991262592883</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,25 +10427,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>29.05223564185411</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>209.4630214765368</v>
+        <v>4.826132308875479</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1.550259450306832</v>
+        <v>285.679844857323</v>
       </c>
       <c r="P33" t="n">
-        <v>9.153201527136126</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
         <v>410.0708656603775</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.076592815888</v>
+        <v>35.85337666773633</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
@@ -10594,22 +10594,22 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M35" t="n">
-        <v>748.0428335284269</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N35" t="n">
-        <v>14.13759212112124</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O35" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P35" t="n">
-        <v>628.1510783507341</v>
+        <v>30.16373071866641</v>
       </c>
       <c r="Q35" t="n">
-        <v>414.4388617681339</v>
+        <v>406.376776333834</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>59.57991262592883</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>29.05223564185411</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>17.68246978737954</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>237.3178681418204</v>
+        <v>4.826132308875479</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>285.679844857323</v>
       </c>
       <c r="P36" t="n">
         <v>621.6393243851574</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>200.669008966306</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10837,7 +10837,7 @@
         <v>14.13759212112124</v>
       </c>
       <c r="O38" t="n">
-        <v>743.321953824879</v>
+        <v>682.6129089414309</v>
       </c>
       <c r="P38" t="n">
         <v>628.1510783507341</v>
@@ -10846,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>59.57991262592883</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,13 +10904,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>17.68246978737954</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>4.826132308875479</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>782.6832582681901</v>
+        <v>177.5614865415603</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>1.550259450306832</v>
       </c>
       <c r="P39" t="n">
-        <v>621.6393243851574</v>
+        <v>9.153201527136126</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
@@ -11062,13 +11062,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>32.97825104065164</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>877.4504173780091</v>
+        <v>280.5593526965233</v>
       </c>
       <c r="N41" t="n">
         <v>853.701196452193</v>
@@ -11077,10 +11077,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>258.9334844683427</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>42.35873826896761</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11138,28 +11138,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>29.05223564185411</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>17.68246978737954</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>4.826132308875479</v>
+        <v>4.826132308875529</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>9.153201527136126</v>
+        <v>138.4999220143046</v>
       </c>
       <c r="Q42" t="n">
-        <v>319.3724096327267</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11299,19 +11299,19 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>388.2775494913937</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>815.2746908024792</v>
+        <v>776.6825730222571</v>
       </c>
       <c r="M44" t="n">
-        <v>877.4504173780091</v>
+        <v>15.7698859437119</v>
       </c>
       <c r="N44" t="n">
         <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>18.80506149174489</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
         <v>628.1510783507341</v>
@@ -11320,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>59.57991262592886</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,22 +11375,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>29.05223564185411</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>17.68246978737954</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>4.826132308875479</v>
+        <v>4.826132308875529</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>277.0157986293344</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>285.6798448573233</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
@@ -11399,7 +11399,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>44.33423667530869</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>159.4322471462683</v>
       </c>
       <c r="G28" t="n">
-        <v>165.3798536334301</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>146.3506825279095</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>109.2271770896934</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>75.51568349795065</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9593641504126</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>124.6173046944876</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>75.51568349795065</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0766660975211</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>72.21212684643766</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1.442486581069574</v>
       </c>
     </row>
     <row r="32">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>584816.5649903768</v>
+        <v>584816.5649903767</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>657401.1496583595</v>
+        <v>657401.1496583596</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>657401.1496583595</v>
+        <v>657401.1496583596</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>657401.1496583596</v>
+        <v>657401.1496583595</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>650562.0460929108</v>
+        <v>650562.0460929107</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>650562.0460929108</v>
+        <v>650562.0460929107</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>657401.1496583595</v>
+        <v>657401.1496583596</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>657401.1496583595</v>
+        <v>657401.1496583596</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>657401.1496583595</v>
+        <v>657401.1496583596</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>657401.1496583595</v>
+        <v>657401.1496583596</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>618953.0935233362</v>
       </c>
       <c r="C2" t="n">
-        <v>618953.0935233363</v>
+        <v>618953.0935233362</v>
       </c>
       <c r="D2" t="n">
-        <v>618953.0935233366</v>
+        <v>618953.0935233367</v>
       </c>
       <c r="E2" t="n">
-        <v>618953.0935233354</v>
+        <v>618953.0935233359</v>
       </c>
       <c r="F2" t="n">
-        <v>618953.0935233366</v>
+        <v>618953.0935233362</v>
       </c>
       <c r="G2" t="n">
-        <v>618953.0935233358</v>
+        <v>618953.0935233362</v>
       </c>
       <c r="H2" t="n">
-        <v>618953.0935233363</v>
+        <v>618953.0935233365</v>
       </c>
       <c r="I2" t="n">
-        <v>618953.0935233358</v>
+        <v>618953.093523336</v>
       </c>
       <c r="J2" t="n">
-        <v>588661.8979813312</v>
+        <v>588661.8979813315</v>
       </c>
       <c r="K2" t="n">
-        <v>588661.8979813311</v>
+        <v>588661.8979813313</v>
       </c>
       <c r="L2" t="n">
-        <v>618953.0935233358</v>
+        <v>618953.0935233359</v>
       </c>
       <c r="M2" t="n">
-        <v>618953.0935233358</v>
+        <v>618953.0935233367</v>
       </c>
       <c r="N2" t="n">
-        <v>618953.0935233358</v>
+        <v>618953.0935233359</v>
       </c>
       <c r="O2" t="n">
-        <v>618953.0935233363</v>
+        <v>618953.0935233361</v>
       </c>
       <c r="P2" t="n">
         <v>618953.0935233362</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5636.805028434377</v>
+        <v>5636.805028434394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>66907.39746147019</v>
+        <v>66907.39746147006</v>
       </c>
       <c r="E3" t="n">
-        <v>378597.8309136527</v>
+        <v>378597.8309136529</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>44581.09486200704</v>
+        <v>44581.09486200707</v>
       </c>
       <c r="M3" t="n">
-        <v>205143.6799262418</v>
+        <v>205143.679926242</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>340429.951334961</v>
       </c>
       <c r="C4" t="n">
-        <v>340429.9513349609</v>
+        <v>340429.951334961</v>
       </c>
       <c r="D4" t="n">
-        <v>305202.5228574263</v>
+        <v>305202.5228574264</v>
       </c>
       <c r="E4" t="n">
         <v>193183.62190517</v>
       </c>
       <c r="F4" t="n">
-        <v>193183.6219051699</v>
+        <v>193183.62190517</v>
       </c>
       <c r="G4" t="n">
-        <v>193183.6219051699</v>
+        <v>193183.62190517</v>
       </c>
       <c r="H4" t="n">
         <v>193183.62190517</v>
@@ -26447,10 +26447,10 @@
         <v>155640.6824572512</v>
       </c>
       <c r="L4" t="n">
-        <v>193183.6219051699</v>
+        <v>193183.62190517</v>
       </c>
       <c r="M4" t="n">
-        <v>193183.6219051699</v>
+        <v>193183.62190517</v>
       </c>
       <c r="N4" t="n">
         <v>193183.62190517</v>
@@ -26459,7 +26459,7 @@
         <v>193183.62190517</v>
       </c>
       <c r="P4" t="n">
-        <v>193183.6219051699</v>
+        <v>193183.62190517</v>
       </c>
     </row>
     <row r="5">
@@ -26475,10 +26475,10 @@
         <v>34650.26256189164</v>
       </c>
       <c r="D5" t="n">
-        <v>47746.13149167108</v>
+        <v>47746.13149167105</v>
       </c>
       <c r="E5" t="n">
-        <v>71247.74004544638</v>
+        <v>71247.74004544639</v>
       </c>
       <c r="F5" t="n">
         <v>71247.74004544638</v>
@@ -26487,16 +26487,16 @@
         <v>71247.74004544638</v>
       </c>
       <c r="H5" t="n">
-        <v>71247.74004544639</v>
+        <v>71247.74004544636</v>
       </c>
       <c r="I5" t="n">
-        <v>71247.74004544639</v>
+        <v>71247.74004544636</v>
       </c>
       <c r="J5" t="n">
-        <v>79658.74889528325</v>
+        <v>79658.74889528324</v>
       </c>
       <c r="K5" t="n">
-        <v>79658.74889528325</v>
+        <v>79658.74889528322</v>
       </c>
       <c r="L5" t="n">
         <v>71247.74004544639</v>
@@ -26524,46 +26524,46 @@
         <v>238236.0745980492</v>
       </c>
       <c r="C6" t="n">
-        <v>243872.8796264838</v>
+        <v>243872.8796264836</v>
       </c>
       <c r="D6" t="n">
-        <v>199097.041712769</v>
+        <v>199097.0417127691</v>
       </c>
       <c r="E6" t="n">
-        <v>-24076.09934093361</v>
+        <v>-24076.09934093342</v>
       </c>
       <c r="F6" t="n">
-        <v>354521.7315727203</v>
+        <v>354521.7315727199</v>
       </c>
       <c r="G6" t="n">
-        <v>354521.7315727195</v>
+        <v>354521.7315727199</v>
       </c>
       <c r="H6" t="n">
-        <v>354521.73157272</v>
+        <v>354521.7315727201</v>
       </c>
       <c r="I6" t="n">
-        <v>354521.7315727194</v>
+        <v>354521.7315727196</v>
       </c>
       <c r="J6" t="n">
-        <v>292605.4098260535</v>
+        <v>292525.6961535748</v>
       </c>
       <c r="K6" t="n">
-        <v>353362.4666287966</v>
+        <v>353282.752956318</v>
       </c>
       <c r="L6" t="n">
         <v>309940.6367107124</v>
       </c>
       <c r="M6" t="n">
-        <v>149378.0516464776</v>
+        <v>149378.0516464783</v>
       </c>
       <c r="N6" t="n">
-        <v>354521.7315727194</v>
+        <v>354521.7315727195</v>
       </c>
       <c r="O6" t="n">
-        <v>354521.7315727199</v>
+        <v>354521.7315727197</v>
       </c>
       <c r="P6" t="n">
-        <v>354521.7315727199</v>
+        <v>354521.7315727198</v>
       </c>
     </row>
   </sheetData>
@@ -26697,10 +26697,10 @@
         <v>55.72636857750884</v>
       </c>
       <c r="F2" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="G2" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="H2" t="n">
         <v>55.72636857750884</v>
@@ -26715,19 +26715,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="M2" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="N2" t="n">
         <v>55.72636857750884</v>
       </c>
       <c r="O2" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="P2" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
     </row>
     <row r="3">
@@ -26755,10 +26755,10 @@
         <v>109.8185940654317</v>
       </c>
       <c r="H3" t="n">
-        <v>109.8185940654317</v>
+        <v>109.8185940654316</v>
       </c>
       <c r="I3" t="n">
-        <v>109.8185940654317</v>
+        <v>109.8185940654316</v>
       </c>
       <c r="J3" t="n">
         <v>109.8185940654317</v>
@@ -26776,10 +26776,10 @@
         <v>109.8185940654317</v>
       </c>
       <c r="O3" t="n">
-        <v>109.8185940654317</v>
+        <v>109.8185940654316</v>
       </c>
       <c r="P3" t="n">
-        <v>109.8185940654317</v>
+        <v>109.8185940654316</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>16.8201079258493</v>
       </c>
       <c r="D4" t="n">
-        <v>232.212689007748</v>
+        <v>232.2126890077475</v>
       </c>
       <c r="E4" t="n">
         <v>1055.408464060483</v>
@@ -26819,19 +26819,19 @@
         <v>1270.801045142382</v>
       </c>
       <c r="L4" t="n">
-        <v>1055.408464060483</v>
+        <v>1055.408464060484</v>
       </c>
       <c r="M4" t="n">
-        <v>1055.408464060483</v>
+        <v>1055.408464060484</v>
       </c>
       <c r="N4" t="n">
-        <v>1055.408464060483</v>
+        <v>1055.408464060484</v>
       </c>
       <c r="O4" t="n">
-        <v>1055.408464060483</v>
+        <v>1055.408464060484</v>
       </c>
       <c r="P4" t="n">
-        <v>1055.408464060483</v>
+        <v>1055.408464060484</v>
       </c>
     </row>
   </sheetData>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>215.3925810818987</v>
+        <v>215.3925810818982</v>
       </c>
       <c r="E4" t="n">
-        <v>823.1957750527351</v>
+        <v>823.1957750527358</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>823.1957750527351</v>
+        <v>823.1957750527358</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>215.3925810818987</v>
+        <v>215.3925810818982</v>
       </c>
       <c r="M4" t="n">
-        <v>823.1957750527351</v>
+        <v>823.1957750527358</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>383.5991826820207</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>387.8208933402468</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>76.61140265300961</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>129.2731327089782</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>122.0798943833815</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
-        <v>115.8350126126944</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
-        <v>98.90807827695218</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>93.0551299582324</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
         <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
-        <v>70.03974083464111</v>
+        <v>53.21963290879181</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>3.720997540112926</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27514,10 +27514,10 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3773027531635</v>
+        <v>178.5571948273142</v>
       </c>
       <c r="V3" t="n">
-        <v>211.5744117368965</v>
+        <v>196.7592606758085</v>
       </c>
       <c r="W3" t="n">
         <v>211.1008365810345</v>
@@ -27545,16 +27545,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>142.4815990545144</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>146.1647067046653</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>133.2962295815099</v>
+        <v>131.2912727167486</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>67.59988321550505</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
@@ -27593,10 +27593,10 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>263.1500580534878</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>254.326779684024</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
@@ -27605,7 +27605,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>207.6731905640349</v>
       </c>
     </row>
     <row r="5">
@@ -27618,13 +27618,13 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>395.7641588630082</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>385.5673455347359</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>393.3767054024229</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27675,7 +27675,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>329.5190711910348</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
@@ -27700,7 +27700,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
-        <v>115.7281862028015</v>
+        <v>100.9130351417134</v>
       </c>
       <c r="E6" t="n">
         <v>119.2878878475953</v>
@@ -27715,7 +27715,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596223</v>
+        <v>3.720997540112926</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>90.09000186098496</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T6" t="n">
         <v>157.7484451748619</v>
       </c>
       <c r="U6" t="n">
-        <v>195.3773027531635</v>
+        <v>178.5571948273142</v>
       </c>
       <c r="V6" t="n">
-        <v>211.5744117368965</v>
+        <v>194.7543038110472</v>
       </c>
       <c r="W6" t="n">
-        <v>194.2807286551852</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X6" t="n">
-        <v>157.7426141166468</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y6" t="n">
-        <v>142.9927889787202</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="7">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>169.0026014042546</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -27782,7 +27782,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>144.4865559192757</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>67.59988321550505</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
@@ -27833,13 +27833,13 @@
         <v>263.1500580534878</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>254.326779684024</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>221.1452724578254</v>
+        <v>219.1403155930641</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>173.906278860097</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>367.4958858837664</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>177.9841243205242</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>184.6074189181013</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -27915,13 +27915,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>314.2923605585339</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>164.4242748449894</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>164.7146173136433</v>
       </c>
     </row>
     <row r="9">
@@ -27931,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,25 +27982,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>195.3773027531635</v>
+        <v>98.25226714271827</v>
       </c>
       <c r="V9" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y9" t="n">
-        <v>29.5838042126465</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="10">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -28025,13 +28025,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
@@ -28076,7 +28076,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>177.6261997168271</v>
+        <v>27.66549512349147</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="C14" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="D14" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="E14" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="F14" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="G14" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="H14" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="I14" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="T14" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="U14" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="V14" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="W14" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="X14" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="Y14" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="C16" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="D16" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="E16" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="F16" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="G16" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="H16" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="I16" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="J16" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="K16" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="L16" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="M16" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="N16" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="O16" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="P16" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750831</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="R16" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="S16" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="T16" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="U16" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="V16" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="W16" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="X16" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="Y16" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="C17" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="D17" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="E17" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="F17" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="G17" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="H17" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="I17" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="T17" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="U17" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="V17" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="W17" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="X17" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="Y17" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="C19" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="D19" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="E19" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="F19" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="G19" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="H19" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="I19" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="J19" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="K19" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="L19" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="M19" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="N19" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="O19" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="P19" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="R19" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="S19" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="T19" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="U19" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="V19" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="W19" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="X19" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="Y19" t="n">
-        <v>55.72636857750883</v>
+        <v>55.72636857750884</v>
       </c>
     </row>
     <row r="20">
@@ -29058,7 +29058,7 @@
         <v>55.72636857750884</v>
       </c>
       <c r="I23" t="n">
-        <v>55.72636857750884</v>
+        <v>55.72636857750925</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29222,7 +29222,7 @@
         <v>55.72636857750884</v>
       </c>
       <c r="K25" t="n">
-        <v>55.72636857750871</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="L25" t="n">
         <v>55.72636857750884</v>
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="C32" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="D32" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="E32" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="F32" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="G32" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="H32" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="I32" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="T32" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="U32" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="V32" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="W32" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="X32" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="Y32" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="C34" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="D34" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="E34" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="F34" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="G34" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="H34" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="I34" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="J34" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="K34" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="L34" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="M34" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="N34" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="O34" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="P34" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="Q34" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="R34" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="S34" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="T34" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="U34" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="V34" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="W34" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="X34" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="Y34" t="n">
-        <v>55.7263685775088</v>
+        <v>55.72636857750884</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="C35" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="D35" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="E35" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="F35" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="G35" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="H35" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="I35" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="T35" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="U35" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="V35" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="W35" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="X35" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="Y35" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="C37" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="D37" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="E37" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="F37" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="G37" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="H37" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="I37" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="J37" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="K37" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="L37" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="M37" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="N37" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="O37" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="P37" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="Q37" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="R37" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="S37" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="T37" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="U37" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="V37" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="W37" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="X37" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="Y37" t="n">
-        <v>55.72636857750881</v>
+        <v>55.72636857750884</v>
       </c>
     </row>
     <row r="38">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="C41" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="D41" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="E41" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="F41" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="G41" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="H41" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="I41" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="T41" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="U41" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="V41" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="W41" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="X41" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="Y41" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="C43" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="D43" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="E43" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="F43" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="G43" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="H43" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="I43" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="J43" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="K43" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750925</v>
       </c>
       <c r="L43" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="M43" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="N43" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="O43" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="P43" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="Q43" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="R43" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="S43" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="T43" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="U43" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="V43" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="W43" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="X43" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="Y43" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="C44" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="D44" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="E44" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="F44" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="G44" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="H44" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="I44" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="T44" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="U44" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="V44" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="W44" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="X44" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="Y44" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="C46" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="D46" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="E46" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="F46" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="G46" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="H46" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="I46" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="J46" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="K46" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="L46" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="M46" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="N46" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="O46" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="P46" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="Q46" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="R46" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="S46" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="T46" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="U46" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="V46" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="W46" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="X46" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
       <c r="Y46" t="n">
-        <v>55.72636857750882</v>
+        <v>55.72636857750884</v>
       </c>
     </row>
   </sheetData>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.441481785187665</v>
+        <v>0.4414817851876645</v>
       </c>
       <c r="H20" t="n">
-        <v>4.521325332553174</v>
+        <v>4.52132533255317</v>
       </c>
       <c r="I20" t="n">
-        <v>17.02022652344747</v>
+        <v>17.02022652344745</v>
       </c>
       <c r="J20" t="n">
-        <v>37.47021466557161</v>
+        <v>37.47021466557158</v>
       </c>
       <c r="K20" t="n">
-        <v>56.15813863256548</v>
+        <v>56.15813863256543</v>
       </c>
       <c r="L20" t="n">
-        <v>69.66913681600249</v>
+        <v>69.66913681600242</v>
       </c>
       <c r="M20" t="n">
-        <v>77.52033851333363</v>
+        <v>77.52033851333356</v>
       </c>
       <c r="N20" t="n">
-        <v>78.77469863549808</v>
+        <v>78.77469863549801</v>
       </c>
       <c r="O20" t="n">
-        <v>74.38471413403823</v>
+        <v>74.38471413403816</v>
       </c>
       <c r="P20" t="n">
-        <v>63.48563256221775</v>
+        <v>63.48563256221769</v>
       </c>
       <c r="Q20" t="n">
-        <v>47.67506613018448</v>
+        <v>47.67506613018444</v>
       </c>
       <c r="R20" t="n">
-        <v>27.73223018879468</v>
+        <v>27.73223018879466</v>
       </c>
       <c r="S20" t="n">
-        <v>10.06026617996393</v>
+        <v>10.06026617996391</v>
       </c>
       <c r="T20" t="n">
-        <v>1.932586514659004</v>
+        <v>1.932586514659002</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03531854281501319</v>
+        <v>0.03531854281501316</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2362135796879098</v>
+        <v>0.2362135796879095</v>
       </c>
       <c r="H21" t="n">
-        <v>2.281325888038498</v>
+        <v>2.281325888038495</v>
       </c>
       <c r="I21" t="n">
-        <v>8.132792107675842</v>
+        <v>8.132792107675835</v>
       </c>
       <c r="J21" t="n">
-        <v>22.3170031581459</v>
+        <v>22.31700315814588</v>
       </c>
       <c r="K21" t="n">
-        <v>38.14331299723585</v>
+        <v>38.14331299723582</v>
       </c>
       <c r="L21" t="n">
-        <v>51.28839150197357</v>
+        <v>51.28839150197352</v>
       </c>
       <c r="M21" t="n">
-        <v>59.85113376566029</v>
+        <v>59.85113376566023</v>
       </c>
       <c r="N21" t="n">
-        <v>61.43521518383054</v>
+        <v>61.43521518383047</v>
       </c>
       <c r="O21" t="n">
-        <v>56.20121954969316</v>
+        <v>56.20121954969311</v>
       </c>
       <c r="P21" t="n">
-        <v>45.10643347566762</v>
+        <v>45.10643347566757</v>
       </c>
       <c r="Q21" t="n">
-        <v>30.15245624226722</v>
+        <v>30.15245624226719</v>
       </c>
       <c r="R21" t="n">
-        <v>14.66596243009672</v>
+        <v>14.66596243009671</v>
       </c>
       <c r="S21" t="n">
-        <v>4.387563640255689</v>
+        <v>4.387563640255685</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9521064900578465</v>
+        <v>0.9521064900578455</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01554036708473091</v>
+        <v>0.0155403670847309</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1980335302819261</v>
+        <v>0.1980335302819259</v>
       </c>
       <c r="H22" t="n">
-        <v>1.760698114688398</v>
+        <v>1.760698114688397</v>
       </c>
       <c r="I22" t="n">
-        <v>5.955408347023742</v>
+        <v>5.955408347023736</v>
       </c>
       <c r="J22" t="n">
-        <v>14.00097059093217</v>
+        <v>14.00097059093216</v>
       </c>
       <c r="K22" t="n">
-        <v>23.00789560911831</v>
+        <v>23.00789560911829</v>
       </c>
       <c r="L22" t="n">
-        <v>29.44218503846018</v>
+        <v>29.44218503846015</v>
       </c>
       <c r="M22" t="n">
-        <v>31.04265602410228</v>
+        <v>31.04265602410225</v>
       </c>
       <c r="N22" t="n">
-        <v>30.30453104759694</v>
+        <v>30.30453104759691</v>
       </c>
       <c r="O22" t="n">
-        <v>27.99113935293989</v>
+        <v>27.99113935293986</v>
       </c>
       <c r="P22" t="n">
-        <v>23.95125533518858</v>
+        <v>23.95125533518855</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.58260770388019</v>
+        <v>16.58260770388017</v>
       </c>
       <c r="R22" t="n">
-        <v>8.904307643403692</v>
+        <v>8.904307643403682</v>
       </c>
       <c r="S22" t="n">
-        <v>3.451184341367747</v>
+        <v>3.451184341367743</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8461432657500475</v>
+        <v>0.8461432657500466</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01080182892446871</v>
+        <v>0.0108018289244687</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.441481785187665</v>
+        <v>0.4414817851876645</v>
       </c>
       <c r="H23" t="n">
-        <v>4.521325332553174</v>
+        <v>4.52132533255317</v>
       </c>
       <c r="I23" t="n">
-        <v>17.02022652344747</v>
+        <v>17.02022652344745</v>
       </c>
       <c r="J23" t="n">
-        <v>37.47021466557161</v>
+        <v>37.47021466557158</v>
       </c>
       <c r="K23" t="n">
-        <v>56.15813863256548</v>
+        <v>56.15813863256543</v>
       </c>
       <c r="L23" t="n">
-        <v>69.66913681600249</v>
+        <v>69.66913681600242</v>
       </c>
       <c r="M23" t="n">
-        <v>77.52033851333363</v>
+        <v>77.52033851333356</v>
       </c>
       <c r="N23" t="n">
-        <v>78.77469863549808</v>
+        <v>78.77469863549801</v>
       </c>
       <c r="O23" t="n">
-        <v>74.38471413403823</v>
+        <v>74.38471413403816</v>
       </c>
       <c r="P23" t="n">
-        <v>63.48563256221775</v>
+        <v>63.48563256221769</v>
       </c>
       <c r="Q23" t="n">
-        <v>47.67506613018448</v>
+        <v>47.67506613018444</v>
       </c>
       <c r="R23" t="n">
-        <v>27.73223018879468</v>
+        <v>27.73223018879466</v>
       </c>
       <c r="S23" t="n">
-        <v>10.06026617996393</v>
+        <v>10.06026617996391</v>
       </c>
       <c r="T23" t="n">
-        <v>1.932586514659004</v>
+        <v>1.932586514659002</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03531854281501319</v>
+        <v>0.03531854281501316</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2362135796879098</v>
+        <v>0.2362135796879095</v>
       </c>
       <c r="H24" t="n">
-        <v>2.281325888038498</v>
+        <v>2.281325888038495</v>
       </c>
       <c r="I24" t="n">
-        <v>8.132792107675842</v>
+        <v>8.132792107675835</v>
       </c>
       <c r="J24" t="n">
-        <v>22.3170031581459</v>
+        <v>22.31700315814588</v>
       </c>
       <c r="K24" t="n">
-        <v>38.14331299723585</v>
+        <v>38.14331299723582</v>
       </c>
       <c r="L24" t="n">
-        <v>51.28839150197357</v>
+        <v>51.28839150197352</v>
       </c>
       <c r="M24" t="n">
-        <v>59.85113376566029</v>
+        <v>59.85113376566023</v>
       </c>
       <c r="N24" t="n">
-        <v>61.43521518383054</v>
+        <v>61.43521518383047</v>
       </c>
       <c r="O24" t="n">
-        <v>56.20121954969316</v>
+        <v>56.20121954969311</v>
       </c>
       <c r="P24" t="n">
-        <v>45.10643347566762</v>
+        <v>45.10643347566757</v>
       </c>
       <c r="Q24" t="n">
-        <v>30.15245624226722</v>
+        <v>30.15245624226719</v>
       </c>
       <c r="R24" t="n">
-        <v>14.66596243009672</v>
+        <v>14.66596243009671</v>
       </c>
       <c r="S24" t="n">
-        <v>4.387563640255689</v>
+        <v>4.387563640255685</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9521064900578465</v>
+        <v>0.9521064900578455</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01554036708473091</v>
+        <v>0.0155403670847309</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1980335302819261</v>
+        <v>0.1980335302819259</v>
       </c>
       <c r="H25" t="n">
-        <v>1.760698114688398</v>
+        <v>1.760698114688397</v>
       </c>
       <c r="I25" t="n">
-        <v>5.955408347023742</v>
+        <v>5.955408347023736</v>
       </c>
       <c r="J25" t="n">
-        <v>14.00097059093217</v>
+        <v>14.00097059093216</v>
       </c>
       <c r="K25" t="n">
-        <v>23.00789560911831</v>
+        <v>23.00789560911829</v>
       </c>
       <c r="L25" t="n">
-        <v>29.44218503846018</v>
+        <v>29.44218503846015</v>
       </c>
       <c r="M25" t="n">
-        <v>31.04265602410228</v>
+        <v>31.04265602410225</v>
       </c>
       <c r="N25" t="n">
-        <v>30.30453104759694</v>
+        <v>30.30453104759691</v>
       </c>
       <c r="O25" t="n">
-        <v>27.99113935293989</v>
+        <v>27.99113935293986</v>
       </c>
       <c r="P25" t="n">
-        <v>23.95125533518858</v>
+        <v>23.95125533518855</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.58260770388019</v>
+        <v>16.58260770388017</v>
       </c>
       <c r="R25" t="n">
-        <v>8.904307643403692</v>
+        <v>8.904307643403682</v>
       </c>
       <c r="S25" t="n">
-        <v>3.451184341367747</v>
+        <v>3.451184341367743</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8461432657500475</v>
+        <v>0.8461432657500466</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01080182892446871</v>
+        <v>0.0108018289244687</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.441481785187665</v>
+        <v>0.4414817851876645</v>
       </c>
       <c r="H41" t="n">
-        <v>4.521325332553174</v>
+        <v>4.52132533255317</v>
       </c>
       <c r="I41" t="n">
-        <v>17.02022652344747</v>
+        <v>17.02022652344745</v>
       </c>
       <c r="J41" t="n">
-        <v>37.47021466557161</v>
+        <v>37.47021466557158</v>
       </c>
       <c r="K41" t="n">
-        <v>56.15813863256548</v>
+        <v>56.15813863256543</v>
       </c>
       <c r="L41" t="n">
-        <v>69.66913681600249</v>
+        <v>69.66913681600242</v>
       </c>
       <c r="M41" t="n">
-        <v>77.52033851333363</v>
+        <v>77.52033851333356</v>
       </c>
       <c r="N41" t="n">
-        <v>78.77469863549808</v>
+        <v>78.77469863549801</v>
       </c>
       <c r="O41" t="n">
-        <v>74.38471413403823</v>
+        <v>74.38471413403816</v>
       </c>
       <c r="P41" t="n">
-        <v>63.48563256221775</v>
+        <v>63.48563256221769</v>
       </c>
       <c r="Q41" t="n">
-        <v>47.67506613018448</v>
+        <v>47.67506613018444</v>
       </c>
       <c r="R41" t="n">
-        <v>27.73223018879468</v>
+        <v>27.73223018879466</v>
       </c>
       <c r="S41" t="n">
-        <v>10.06026617996393</v>
+        <v>10.06026617996391</v>
       </c>
       <c r="T41" t="n">
-        <v>1.932586514659004</v>
+        <v>1.932586514659002</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03531854281501319</v>
+        <v>0.03531854281501316</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2362135796879098</v>
+        <v>0.2362135796879095</v>
       </c>
       <c r="H42" t="n">
-        <v>2.281325888038498</v>
+        <v>2.281325888038495</v>
       </c>
       <c r="I42" t="n">
-        <v>8.132792107675842</v>
+        <v>8.132792107675835</v>
       </c>
       <c r="J42" t="n">
-        <v>22.3170031581459</v>
+        <v>22.31700315814588</v>
       </c>
       <c r="K42" t="n">
-        <v>38.14331299723585</v>
+        <v>38.14331299723582</v>
       </c>
       <c r="L42" t="n">
-        <v>51.28839150197357</v>
+        <v>51.28839150197352</v>
       </c>
       <c r="M42" t="n">
-        <v>59.85113376566029</v>
+        <v>59.85113376566023</v>
       </c>
       <c r="N42" t="n">
-        <v>61.43521518383054</v>
+        <v>61.43521518383047</v>
       </c>
       <c r="O42" t="n">
-        <v>56.20121954969316</v>
+        <v>56.20121954969311</v>
       </c>
       <c r="P42" t="n">
-        <v>45.10643347566762</v>
+        <v>45.10643347566757</v>
       </c>
       <c r="Q42" t="n">
-        <v>30.15245624226722</v>
+        <v>30.15245624226719</v>
       </c>
       <c r="R42" t="n">
-        <v>14.66596243009672</v>
+        <v>14.66596243009671</v>
       </c>
       <c r="S42" t="n">
-        <v>4.387563640255689</v>
+        <v>4.387563640255685</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9521064900578465</v>
+        <v>0.9521064900578455</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01554036708473091</v>
+        <v>0.0155403670847309</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1980335302819261</v>
+        <v>0.1980335302819259</v>
       </c>
       <c r="H43" t="n">
-        <v>1.760698114688398</v>
+        <v>1.760698114688397</v>
       </c>
       <c r="I43" t="n">
-        <v>5.955408347023742</v>
+        <v>5.955408347023736</v>
       </c>
       <c r="J43" t="n">
-        <v>14.00097059093217</v>
+        <v>14.00097059093216</v>
       </c>
       <c r="K43" t="n">
-        <v>23.00789560911831</v>
+        <v>23.00789560911829</v>
       </c>
       <c r="L43" t="n">
-        <v>29.44218503846018</v>
+        <v>29.44218503846015</v>
       </c>
       <c r="M43" t="n">
-        <v>31.04265602410228</v>
+        <v>31.04265602410225</v>
       </c>
       <c r="N43" t="n">
-        <v>30.30453104759694</v>
+        <v>30.30453104759691</v>
       </c>
       <c r="O43" t="n">
-        <v>27.99113935293989</v>
+        <v>27.99113935293986</v>
       </c>
       <c r="P43" t="n">
-        <v>23.95125533518858</v>
+        <v>23.95125533518855</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.58260770388019</v>
+        <v>16.58260770388017</v>
       </c>
       <c r="R43" t="n">
-        <v>8.904307643403692</v>
+        <v>8.904307643403682</v>
       </c>
       <c r="S43" t="n">
-        <v>3.451184341367747</v>
+        <v>3.451184341367743</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8461432657500475</v>
+        <v>0.8461432657500466</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01080182892446871</v>
+        <v>0.0108018289244687</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.441481785187665</v>
+        <v>0.4414817851876645</v>
       </c>
       <c r="H44" t="n">
-        <v>4.521325332553174</v>
+        <v>4.52132533255317</v>
       </c>
       <c r="I44" t="n">
-        <v>17.02022652344747</v>
+        <v>17.02022652344745</v>
       </c>
       <c r="J44" t="n">
-        <v>37.47021466557161</v>
+        <v>37.47021466557158</v>
       </c>
       <c r="K44" t="n">
-        <v>56.15813863256548</v>
+        <v>56.15813863256543</v>
       </c>
       <c r="L44" t="n">
-        <v>69.66913681600249</v>
+        <v>69.66913681600242</v>
       </c>
       <c r="M44" t="n">
-        <v>77.52033851333363</v>
+        <v>77.52033851333356</v>
       </c>
       <c r="N44" t="n">
-        <v>78.77469863549808</v>
+        <v>78.77469863549801</v>
       </c>
       <c r="O44" t="n">
-        <v>74.38471413403823</v>
+        <v>74.38471413403816</v>
       </c>
       <c r="P44" t="n">
-        <v>63.48563256221775</v>
+        <v>63.48563256221769</v>
       </c>
       <c r="Q44" t="n">
-        <v>47.67506613018448</v>
+        <v>47.67506613018444</v>
       </c>
       <c r="R44" t="n">
-        <v>27.73223018879468</v>
+        <v>27.73223018879466</v>
       </c>
       <c r="S44" t="n">
-        <v>10.06026617996393</v>
+        <v>10.06026617996391</v>
       </c>
       <c r="T44" t="n">
-        <v>1.932586514659004</v>
+        <v>1.932586514659002</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03531854281501319</v>
+        <v>0.03531854281501316</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2362135796879098</v>
+        <v>0.2362135796879095</v>
       </c>
       <c r="H45" t="n">
-        <v>2.281325888038498</v>
+        <v>2.281325888038495</v>
       </c>
       <c r="I45" t="n">
-        <v>8.132792107675842</v>
+        <v>8.132792107675835</v>
       </c>
       <c r="J45" t="n">
-        <v>22.3170031581459</v>
+        <v>22.31700315814588</v>
       </c>
       <c r="K45" t="n">
-        <v>38.14331299723585</v>
+        <v>38.14331299723582</v>
       </c>
       <c r="L45" t="n">
-        <v>51.28839150197357</v>
+        <v>51.28839150197352</v>
       </c>
       <c r="M45" t="n">
-        <v>59.85113376566029</v>
+        <v>59.85113376566023</v>
       </c>
       <c r="N45" t="n">
-        <v>61.43521518383054</v>
+        <v>61.43521518383047</v>
       </c>
       <c r="O45" t="n">
-        <v>56.20121954969316</v>
+        <v>56.20121954969311</v>
       </c>
       <c r="P45" t="n">
-        <v>45.10643347566762</v>
+        <v>45.10643347566757</v>
       </c>
       <c r="Q45" t="n">
-        <v>30.15245624226722</v>
+        <v>30.15245624226719</v>
       </c>
       <c r="R45" t="n">
-        <v>14.66596243009672</v>
+        <v>14.66596243009671</v>
       </c>
       <c r="S45" t="n">
-        <v>4.387563640255689</v>
+        <v>4.387563640255685</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9521064900578465</v>
+        <v>0.9521064900578455</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01554036708473091</v>
+        <v>0.0155403670847309</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1980335302819261</v>
+        <v>0.1980335302819259</v>
       </c>
       <c r="H46" t="n">
-        <v>1.760698114688398</v>
+        <v>1.760698114688397</v>
       </c>
       <c r="I46" t="n">
-        <v>5.955408347023742</v>
+        <v>5.955408347023736</v>
       </c>
       <c r="J46" t="n">
-        <v>14.00097059093217</v>
+        <v>14.00097059093216</v>
       </c>
       <c r="K46" t="n">
-        <v>23.00789560911831</v>
+        <v>23.00789560911829</v>
       </c>
       <c r="L46" t="n">
-        <v>29.44218503846018</v>
+        <v>29.44218503846015</v>
       </c>
       <c r="M46" t="n">
-        <v>31.04265602410228</v>
+        <v>31.04265602410225</v>
       </c>
       <c r="N46" t="n">
-        <v>30.30453104759694</v>
+        <v>30.30453104759691</v>
       </c>
       <c r="O46" t="n">
-        <v>27.99113935293989</v>
+        <v>27.99113935293986</v>
       </c>
       <c r="P46" t="n">
-        <v>23.95125533518858</v>
+        <v>23.95125533518855</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.58260770388019</v>
+        <v>16.58260770388017</v>
       </c>
       <c r="R46" t="n">
-        <v>8.904307643403692</v>
+        <v>8.904307643403682</v>
       </c>
       <c r="S46" t="n">
-        <v>3.451184341367747</v>
+        <v>3.451184341367743</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8461432657500475</v>
+        <v>0.8461432657500466</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01080182892446871</v>
+        <v>0.0108018289244687</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34707,13 +34707,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>16.14050760561297</v>
       </c>
       <c r="N2" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34722,7 +34722,7 @@
         <v>16.8201079258493</v>
       </c>
       <c r="R2" t="n">
-        <v>16.14050760561297</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="K3" t="n">
         <v>16.8201079258493</v>
@@ -34786,22 +34786,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>16.14050760561297</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>16.8201079258493</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>16.8201079258493</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>16.14050760561297</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34862,22 +34862,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>16.14050760561297</v>
+      </c>
+      <c r="O4" t="n">
         <v>16.8201079258493</v>
-      </c>
-      <c r="M4" t="n">
-        <v>16.8201079258493</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="Q4" t="n">
-        <v>16.14050760561297</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>16.8201079258493</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>16.8201079258493</v>
+      </c>
+      <c r="R5" t="n">
         <v>16.14050760561297</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>16.8201079258493</v>
-      </c>
-      <c r="N5" t="n">
-        <v>16.8201079258493</v>
-      </c>
-      <c r="O5" t="n">
-        <v>16.8201079258493</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35026,16 +35026,16 @@
         <v>16.8201079258493</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>16.14050760561297</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>16.8201079258493</v>
       </c>
       <c r="R6" t="n">
         <v>16.8201079258493</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>14.22479737900053</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>16.8201079258493</v>
@@ -35105,16 +35105,16 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>16.8201079258493</v>
+        <v>16.14050760561297</v>
       </c>
       <c r="O7" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.915710226612451</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>232.2126890077475</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>181.8640493614094</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>232.2126890077475</v>
       </c>
       <c r="N8" t="n">
-        <v>232.212689007748</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>232.212689007748</v>
+        <v>232.2126890077475</v>
       </c>
       <c r="P8" t="n">
-        <v>222.8303581387481</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>232.212689007748</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>222.8303581387481</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.212689007748</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,16 +35266,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>232.212689007748</v>
+        <v>232.2126890077475</v>
       </c>
       <c r="P9" t="n">
-        <v>232.212689007748</v>
+        <v>232.2126890077475</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>232.2126890077475</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>28.06989595426973</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,25 +35330,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5269666996078258</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K10" t="n">
         <v>156.1134623456949</v>
       </c>
       <c r="L10" t="n">
-        <v>232.212689007748</v>
+        <v>232.2126890077475</v>
       </c>
       <c r="M10" t="n">
-        <v>232.212689007748</v>
+        <v>232.2126890077475</v>
       </c>
       <c r="N10" t="n">
-        <v>232.212689007748</v>
+        <v>10.76188837925112</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q10" t="n">
         <v>66.18992909344529</v>
@@ -35415,7 +35415,7 @@
         <v>599.753594298262</v>
       </c>
       <c r="L11" t="n">
-        <v>487.1731279731831</v>
+        <v>789.4584295556368</v>
       </c>
       <c r="M11" t="n">
         <v>861.6805314342972</v>
@@ -35427,13 +35427,13 @@
         <v>724.5168923331341</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1.096282950580607</v>
       </c>
       <c r="Q11" t="n">
-        <v>372.0801234991663</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>68.69853896613289</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>217.0774653426239</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>498.5536728611739</v>
       </c>
       <c r="L12" t="n">
-        <v>257.1576772259963</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>911.3431344672427</v>
+        <v>2.28685002724287</v>
       </c>
       <c r="N12" t="n">
         <v>8.241821790080543</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>328.6536482034057</v>
       </c>
       <c r="P12" t="n">
         <v>612.4861228580212</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>383.530703397806</v>
       </c>
       <c r="R12" t="n">
-        <v>44.52406279638954</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>83.95213654744153</v>
+        <v>83.95213654744154</v>
       </c>
       <c r="K13" t="n">
         <v>234.8477265323221</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>294.2232161481517</v>
       </c>
       <c r="K14" t="n">
         <v>599.753594298262</v>
@@ -35655,19 +35655,19 @@
         <v>789.4584295556368</v>
       </c>
       <c r="M14" t="n">
-        <v>861.6805314342972</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>839.5636043310718</v>
       </c>
       <c r="O14" t="n">
-        <v>490.5475827659307</v>
+        <v>685.9247745529096</v>
       </c>
       <c r="P14" t="n">
         <v>597.9873476320678</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>372.0801234991663</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,13 +35728,13 @@
         <v>217.0774653426239</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>498.5536728611739</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>284.1295854070162</v>
       </c>
       <c r="M15" t="n">
-        <v>911.3431344672427</v>
+        <v>2.28685002724287</v>
       </c>
       <c r="N15" t="n">
         <v>8.241821790080543</v>
@@ -35746,7 +35746,7 @@
         <v>612.4861228580212</v>
       </c>
       <c r="Q15" t="n">
-        <v>257.1576772259959</v>
+        <v>383.530703397806</v>
       </c>
       <c r="R15" t="n">
         <v>44.52406279638954</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>83.95213654744153</v>
+        <v>83.95213654744154</v>
       </c>
       <c r="K16" t="n">
         <v>234.8477265323221</v>
@@ -35822,7 +35822,7 @@
         <v>345.8999426036549</v>
       </c>
       <c r="P16" t="n">
-        <v>287.4305938618008</v>
+        <v>287.4305938618003</v>
       </c>
       <c r="Q16" t="n">
         <v>138.4989053748343</v>
@@ -35898,16 +35898,16 @@
         <v>839.5636043310718</v>
       </c>
       <c r="O17" t="n">
-        <v>127.6258276516457</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>597.9873476320678</v>
+        <v>422.2315907506803</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>372.0801234991663</v>
       </c>
       <c r="R17" t="n">
-        <v>68.69853896613289</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>217.0774653426239</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>498.5536728611739</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>719.0542217234769</v>
       </c>
       <c r="M18" t="n">
-        <v>563.3790399666094</v>
+        <v>711.0481181087756</v>
       </c>
       <c r="N18" t="n">
         <v>8.241821790080543</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>612.4861228580212</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>44.52406279638954</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>83.95213654744153</v>
+        <v>83.95213654744154</v>
       </c>
       <c r="K19" t="n">
         <v>234.8477265323221</v>
@@ -36123,28 +36123,28 @@
         <v>294.2232161481517</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>599.7535942982619</v>
       </c>
       <c r="L20" t="n">
-        <v>420.2408356732449</v>
+        <v>789.4584295556367</v>
       </c>
       <c r="M20" t="n">
-        <v>861.6805314342972</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>839.5636043310718</v>
+        <v>800.971486550848</v>
       </c>
       <c r="O20" t="n">
-        <v>724.5168923331341</v>
+        <v>724.516892333134</v>
       </c>
       <c r="P20" t="n">
-        <v>597.9873476320678</v>
+        <v>597.9873476320677</v>
       </c>
       <c r="Q20" t="n">
         <v>372.0801234991663</v>
       </c>
       <c r="R20" t="n">
-        <v>68.69853896613289</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>217.0774653426239</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>498.5536728611739</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>284.1295854070165</v>
       </c>
       <c r="M21" t="n">
-        <v>911.3431344672427</v>
+        <v>2.286850027242807</v>
       </c>
       <c r="N21" t="n">
-        <v>8.241821790080543</v>
+        <v>8.241821790080479</v>
       </c>
       <c r="O21" t="n">
-        <v>703.1905620288354</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>612.4861228580212</v>
       </c>
       <c r="Q21" t="n">
         <v>383.530703397806</v>
       </c>
       <c r="R21" t="n">
-        <v>44.52406279638954</v>
+        <v>44.52406279638953</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>83.95213654744153</v>
+        <v>83.95213654744151</v>
       </c>
       <c r="K22" t="n">
-        <v>234.8477265323221</v>
+        <v>234.847726532322</v>
       </c>
       <c r="L22" t="n">
         <v>347.6908771311817</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>294.2232161481517</v>
       </c>
       <c r="K23" t="n">
-        <v>599.753594298262</v>
+        <v>599.7535942982619</v>
       </c>
       <c r="L23" t="n">
-        <v>789.4584295556368</v>
+        <v>789.4584295556367</v>
       </c>
       <c r="M23" t="n">
-        <v>861.6805314342972</v>
+        <v>264.7894667528096</v>
       </c>
       <c r="N23" t="n">
-        <v>839.5636043310718</v>
+        <v>839.5636043310717</v>
       </c>
       <c r="O23" t="n">
-        <v>49.76892030063211</v>
+        <v>724.516892333134</v>
       </c>
       <c r="P23" t="n">
-        <v>597.9873476320678</v>
+        <v>597.9873476320677</v>
       </c>
       <c r="Q23" t="n">
-        <v>372.0801234991663</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.69853896613289</v>
+        <v>68.69853896613286</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>217.0774653426239</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>498.5536728611739</v>
       </c>
       <c r="L24" t="n">
-        <v>719.0542217234769</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>2.28685002724287</v>
+        <v>2.286850027242807</v>
       </c>
       <c r="N24" t="n">
-        <v>8.241821790080543</v>
+        <v>8.241821790080479</v>
       </c>
       <c r="O24" t="n">
-        <v>767.2689877778693</v>
+        <v>284.1295854070164</v>
       </c>
       <c r="P24" t="n">
-        <v>509.4543403652951</v>
+        <v>612.4861228580212</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>383.530703397806</v>
       </c>
       <c r="R24" t="n">
-        <v>44.52406279638954</v>
+        <v>44.52406279638953</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>83.95213654744153</v>
+        <v>83.95213654744151</v>
       </c>
       <c r="K25" t="n">
         <v>234.847726532322</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>178.1196217463299</v>
+        <v>294.2232161481517</v>
       </c>
       <c r="K26" t="n">
         <v>599.753594298262</v>
@@ -36612,7 +36612,7 @@
         <v>724.5168923331341</v>
       </c>
       <c r="P26" t="n">
-        <v>597.9873476320678</v>
+        <v>481.883753230245</v>
       </c>
       <c r="Q26" t="n">
         <v>372.0801234991663</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>217.0774653426239</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>498.5536728611739</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>911.3431344672427</v>
+        <v>2.28685002724287</v>
       </c>
       <c r="N27" t="n">
         <v>8.241821790080543</v>
       </c>
       <c r="O27" t="n">
-        <v>767.2689877778693</v>
+        <v>284.1295854070162</v>
       </c>
       <c r="P27" t="n">
-        <v>319.452277648772</v>
+        <v>612.4861228580212</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>383.530703397806</v>
       </c>
       <c r="R27" t="n">
         <v>44.52406279638954</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>294.2232161481517</v>
+        <v>178.1196217463281</v>
       </c>
       <c r="K29" t="n">
-        <v>483.6499998964402</v>
+        <v>599.753594298262</v>
       </c>
       <c r="L29" t="n">
         <v>789.4584295556368</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>217.0774653426239</v>
       </c>
       <c r="K30" t="n">
-        <v>64.08440889219742</v>
+        <v>498.5536728611739</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36922,10 +36922,10 @@
         <v>2.28685002724287</v>
       </c>
       <c r="N30" t="n">
-        <v>943.9181365086971</v>
+        <v>8.241821790080543</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>284.1295854070162</v>
       </c>
       <c r="P30" t="n">
         <v>612.4861228580212</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>294.2232161481517</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>599.753594298262</v>
       </c>
       <c r="L32" t="n">
         <v>789.4584295556368</v>
@@ -37086,13 +37086,13 @@
         <v>724.5168923331341</v>
       </c>
       <c r="P32" t="n">
-        <v>597.9873476320678</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>297.0857457649267</v>
+        <v>69.79482191671453</v>
       </c>
       <c r="R32" t="n">
-        <v>68.69853896613289</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>217.0774653426239</v>
       </c>
       <c r="K33" t="n">
         <v>498.5536728611739</v>
       </c>
       <c r="L33" t="n">
-        <v>204.6368891676613</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>911.3431344672427</v>
+        <v>2.28685002724287</v>
       </c>
       <c r="N33" t="n">
         <v>8.241821790080543</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>284.1295854070162</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>612.4861228580212</v>
       </c>
       <c r="Q33" t="n">
         <v>383.530703397806</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>83.9521365474415</v>
+        <v>83.95213654744153</v>
       </c>
       <c r="K34" t="n">
-        <v>234.847726532322</v>
+        <v>234.8477265323221</v>
       </c>
       <c r="L34" t="n">
         <v>347.6908771311817</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>294.2232161481517</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>599.753594298262</v>
@@ -37314,22 +37314,22 @@
         <v>789.4584295556368</v>
       </c>
       <c r="M35" t="n">
-        <v>732.272947584715</v>
+        <v>861.6805314342972</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>839.5636043310718</v>
       </c>
       <c r="O35" t="n">
         <v>724.5168923331341</v>
       </c>
       <c r="P35" t="n">
-        <v>597.9873476320678</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>372.0801234991663</v>
+        <v>364.0180380648665</v>
       </c>
       <c r="R35" t="n">
-        <v>68.69853896613289</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>217.0774653426239</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>498.5536728611739</v>
       </c>
       <c r="L36" t="n">
-        <v>232.4917358329449</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>2.28685002724287</v>
@@ -37399,7 +37399,7 @@
         <v>8.241821790080543</v>
       </c>
       <c r="O36" t="n">
-        <v>767.2689877778693</v>
+        <v>284.1295854070162</v>
       </c>
       <c r="P36" t="n">
         <v>612.4861228580212</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>83.95213654744151</v>
+        <v>83.95213654744153</v>
       </c>
       <c r="K37" t="n">
         <v>234.8477265323221</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>164.8156322985697</v>
+        <v>294.2232161481517</v>
       </c>
       <c r="K38" t="n">
         <v>599.753594298262</v>
@@ -37557,7 +37557,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>724.5168923331341</v>
+        <v>663.8078474496859</v>
       </c>
       <c r="P38" t="n">
         <v>597.9873476320678</v>
@@ -37566,7 +37566,7 @@
         <v>372.0801234991663</v>
       </c>
       <c r="R38" t="n">
-        <v>68.69853896613289</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>217.0774653426239</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>498.5536728611739</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>719.0542217234769</v>
       </c>
       <c r="M39" t="n">
-        <v>784.970108295433</v>
+        <v>179.8483365688032</v>
       </c>
       <c r="N39" t="n">
         <v>8.241821790080543</v>
@@ -37639,7 +37639,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>612.4861228580212</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>383.530703397806</v>
@@ -37782,28 +37782,28 @@
         <v>294.2232161481517</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>599.7535942982619</v>
       </c>
       <c r="L41" t="n">
-        <v>789.4584295556368</v>
+        <v>789.4584295556367</v>
       </c>
       <c r="M41" t="n">
-        <v>861.6805314342972</v>
+        <v>264.7894667528114</v>
       </c>
       <c r="N41" t="n">
-        <v>839.5636043310718</v>
+        <v>839.5636043310717</v>
       </c>
       <c r="O41" t="n">
-        <v>724.5168923331341</v>
+        <v>724.516892333134</v>
       </c>
       <c r="P41" t="n">
-        <v>228.7697537496763</v>
+        <v>597.9873476320677</v>
       </c>
       <c r="Q41" t="n">
-        <v>372.0801234991663</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>68.69853896613289</v>
+        <v>68.69853896613286</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>217.0774653426239</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>498.5536728611739</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>2.28685002724287</v>
+        <v>2.286850027242807</v>
       </c>
       <c r="N42" t="n">
-        <v>943.9181365086971</v>
+        <v>8.241821790080479</v>
       </c>
       <c r="O42" t="n">
-        <v>767.2689877778693</v>
+        <v>767.2689877778691</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>129.3467204871684</v>
       </c>
       <c r="Q42" t="n">
-        <v>292.8322473701552</v>
+        <v>383.530703397806</v>
       </c>
       <c r="R42" t="n">
-        <v>44.52406279638954</v>
+        <v>44.52406279638953</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>83.95213654744153</v>
+        <v>83.95213654744151</v>
       </c>
       <c r="K43" t="n">
-        <v>234.8477265323221</v>
+        <v>234.8477265323225</v>
       </c>
       <c r="L43" t="n">
         <v>347.6908771311817</v>
@@ -38019,28 +38019,28 @@
         <v>294.2232161481517</v>
       </c>
       <c r="K44" t="n">
-        <v>355.2992984507421</v>
+        <v>599.7535942982619</v>
       </c>
       <c r="L44" t="n">
-        <v>789.4584295556368</v>
+        <v>750.8663117754147</v>
       </c>
       <c r="M44" t="n">
-        <v>861.6805314342972</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>839.5636043310718</v>
+        <v>839.5636043310717</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>724.516892333134</v>
       </c>
       <c r="P44" t="n">
-        <v>597.9873476320678</v>
+        <v>597.9873476320677</v>
       </c>
       <c r="Q44" t="n">
         <v>372.0801234991663</v>
       </c>
       <c r="R44" t="n">
-        <v>68.69853896613289</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>217.0774653426239</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>498.5536728611739</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>2.28685002724287</v>
+        <v>2.286850027242807</v>
       </c>
       <c r="N45" t="n">
-        <v>285.2576204194149</v>
+        <v>8.241821790080479</v>
       </c>
       <c r="O45" t="n">
-        <v>767.2689877778693</v>
+        <v>284.1295854070164</v>
       </c>
       <c r="P45" t="n">
         <v>612.4861228580212</v>
@@ -38119,7 +38119,7 @@
         <v>383.530703397806</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>44.52406279638953</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>83.95213654744151</v>
       </c>
       <c r="K46" t="n">
-        <v>234.8477265323221</v>
+        <v>234.847726532322</v>
       </c>
       <c r="L46" t="n">
         <v>347.6908771311817</v>
